--- a/2019/D/code/data.xlsx
+++ b/2019/D/code/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83BFD5D-A51D-459A-8992-E71FDBD0C17E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4828F69F-5A04-4059-B2E7-A2F8274748B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="52">
   <si>
     <t>s15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//两个节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +103,6 @@
   </si>
   <si>
     <t>s08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//两条路都能走</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -567,7 +555,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -586,7 +574,7 @@
         <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,6 +590,9 @@
       <c r="D2">
         <v>40</v>
       </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -616,6 +607,9 @@
       <c r="D3">
         <v>70</v>
       </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -625,10 +619,13 @@
         <v>848</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -644,6 +641,9 @@
       <c r="D5">
         <v>18</v>
       </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -658,6 +658,9 @@
       <c r="D6">
         <v>20</v>
       </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -672,6 +675,9 @@
       <c r="D7">
         <v>45</v>
       </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -686,6 +692,9 @@
       <c r="D8">
         <v>45</v>
       </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -700,6 +709,9 @@
       <c r="D9">
         <v>40</v>
       </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -714,6 +726,9 @@
       <c r="D10">
         <v>35</v>
       </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -728,6 +743,9 @@
       <c r="D11">
         <v>40</v>
       </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -742,6 +760,9 @@
       <c r="D12">
         <v>55</v>
       </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -756,6 +777,9 @@
       <c r="D13">
         <v>30</v>
       </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -770,6 +794,9 @@
       <c r="D14">
         <v>25</v>
       </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -784,6 +811,9 @@
       <c r="D15">
         <v>70</v>
       </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -798,8 +828,11 @@
       <c r="D16">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -812,8 +845,11 @@
       <c r="D17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -826,8 +862,11 @@
       <c r="D18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -840,8 +879,11 @@
       <c r="D19">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -854,8 +896,11 @@
       <c r="D20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -868,8 +913,11 @@
       <c r="D21">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -882,8 +930,11 @@
       <c r="D22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -896,8 +947,11 @@
       <c r="D23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -910,8 +964,11 @@
       <c r="D24">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -924,8 +981,11 @@
       <c r="D25">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -938,8 +998,11 @@
       <c r="D26">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -952,8 +1015,11 @@
       <c r="D27">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -966,8 +1032,11 @@
       <c r="D28">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -980,8 +1049,11 @@
       <c r="D29">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -994,8 +1066,11 @@
       <c r="D30">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1008,8 +1083,11 @@
       <c r="D31">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1022,8 +1100,11 @@
       <c r="D32">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1036,8 +1117,11 @@
       <c r="D33">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1050,8 +1134,11 @@
       <c r="D34">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1064,8 +1151,11 @@
       <c r="D35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1078,8 +1168,11 @@
       <c r="D36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1092,8 +1185,11 @@
       <c r="D37">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1106,8 +1202,11 @@
       <c r="D38">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1120,8 +1219,11 @@
       <c r="D39">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1134,8 +1236,11 @@
       <c r="D40">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1148,8 +1253,11 @@
       <c r="D41">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1162,8 +1270,11 @@
       <c r="D42">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1176,8 +1287,11 @@
       <c r="D43">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1190,8 +1304,11 @@
       <c r="D44">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1204,8 +1321,11 @@
       <c r="D45">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1218,8 +1338,11 @@
       <c r="D46">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1232,8 +1355,11 @@
       <c r="D47">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1246,8 +1372,11 @@
       <c r="D48">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1260,8 +1389,11 @@
       <c r="D49">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1274,8 +1406,11 @@
       <c r="D50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1288,8 +1423,11 @@
       <c r="D51">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1302,8 +1440,11 @@
       <c r="D52">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1316,8 +1457,11 @@
       <c r="D53">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1330,8 +1474,11 @@
       <c r="D54">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1344,8 +1491,11 @@
       <c r="D55">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1358,8 +1508,11 @@
       <c r="D56">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1372,8 +1525,11 @@
       <c r="D57">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1381,13 +1537,16 @@
         <v>557</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D58">
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1395,13 +1554,16 @@
         <v>505</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D59">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1414,8 +1576,11 @@
       <c r="D60">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1428,8 +1593,11 @@
       <c r="D61">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1442,8 +1610,11 @@
       <c r="D62">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1456,8 +1627,11 @@
       <c r="D63">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1469,6 +1643,9 @@
       </c>
       <c r="D64">
         <v>100</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1484,6 +1661,9 @@
       <c r="D65">
         <v>40</v>
       </c>
+      <c r="E65" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -1499,7 +1679,7 @@
         <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1510,10 +1690,13 @@
         <v>632</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67">
         <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1529,6 +1712,9 @@
       <c r="D68">
         <v>30</v>
       </c>
+      <c r="E68" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -1543,6 +1729,9 @@
       <c r="D69">
         <v>10</v>
       </c>
+      <c r="E69" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -1552,10 +1741,13 @@
         <v>633</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70">
         <v>30</v>
+      </c>
+      <c r="E70" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1571,6 +1763,9 @@
       <c r="D71">
         <v>50</v>
       </c>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -1585,6 +1780,9 @@
       <c r="D72">
         <v>65</v>
       </c>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -1594,10 +1792,13 @@
         <v>640</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D73">
         <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1613,6 +1814,9 @@
       <c r="D74">
         <v>30</v>
       </c>
+      <c r="E74" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -1622,10 +1826,13 @@
         <v>641</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75">
         <v>30</v>
+      </c>
+      <c r="E75" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1641,6 +1848,9 @@
       <c r="D76">
         <v>65</v>
       </c>
+      <c r="E76" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -1655,6 +1865,9 @@
       <c r="D77">
         <v>75</v>
       </c>
+      <c r="E77" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -1669,6 +1882,9 @@
       <c r="D78">
         <v>35</v>
       </c>
+      <c r="E78" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -1683,6 +1899,9 @@
       <c r="D79">
         <v>45</v>
       </c>
+      <c r="E79" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -1697,8 +1916,11 @@
       <c r="D80">
         <v>60</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1711,8 +1933,11 @@
       <c r="D81">
         <v>30</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1725,8 +1950,11 @@
       <c r="D82">
         <v>40</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1734,13 +1962,16 @@
         <v>663</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83">
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1748,13 +1979,16 @@
         <v>600</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1767,8 +2001,11 @@
       <c r="D85">
         <v>30</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1781,8 +2018,11 @@
       <c r="D86">
         <v>55</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1795,8 +2035,11 @@
       <c r="D87">
         <v>35</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1809,8 +2052,11 @@
       <c r="D88">
         <v>40</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1823,8 +2069,11 @@
       <c r="D89">
         <v>40</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1837,8 +2086,11 @@
       <c r="D90">
         <v>30</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1846,13 +2098,16 @@
         <v>706</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1860,13 +2115,16 @@
         <v>703</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>35</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1874,13 +2132,16 @@
         <v>706</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1888,13 +2149,16 @@
         <v>709</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1902,13 +2166,16 @@
         <v>703</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95">
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1921,8 +2188,11 @@
       <c r="D96">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1930,13 +2200,16 @@
         <v>702</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1949,8 +2222,11 @@
       <c r="D98">
         <v>50</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1958,13 +2234,16 @@
         <v>702</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99">
         <v>40</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1972,13 +2251,16 @@
         <v>701</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D100">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1991,8 +2273,11 @@
       <c r="D101">
         <v>40</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2005,8 +2290,11 @@
       <c r="D102">
         <v>80</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2019,8 +2307,11 @@
       <c r="D103">
         <v>35</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2033,8 +2324,11 @@
       <c r="D104">
         <v>70</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2047,8 +2341,11 @@
       <c r="D105">
         <v>30</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2056,13 +2353,16 @@
         <v>715</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106">
         <v>30</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2070,13 +2370,16 @@
         <v>700</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107">
         <v>25</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2089,8 +2392,11 @@
       <c r="D108">
         <v>65</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2103,8 +2409,11 @@
       <c r="D109">
         <v>85</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2117,8 +2426,11 @@
       <c r="D110">
         <v>60</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2131,8 +2443,11 @@
       <c r="D111">
         <v>25</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2145,8 +2460,11 @@
       <c r="D112">
         <v>25</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2159,8 +2477,11 @@
       <c r="D113">
         <v>40</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2173,8 +2494,11 @@
       <c r="D114">
         <v>25</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2187,8 +2511,11 @@
       <c r="D115">
         <v>40</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2201,8 +2528,11 @@
       <c r="D116">
         <v>25</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2215,8 +2545,11 @@
       <c r="D117">
         <v>25</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2224,13 +2557,16 @@
         <v>718</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <v>50</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2243,8 +2579,11 @@
       <c r="D119">
         <v>60</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2257,8 +2596,11 @@
       <c r="D120">
         <v>60</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2271,8 +2613,11 @@
       <c r="D121">
         <v>65</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2285,8 +2630,11 @@
       <c r="D122">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2299,8 +2647,11 @@
       <c r="D123">
         <v>30</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2313,8 +2664,11 @@
       <c r="D124">
         <v>60</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2322,13 +2676,16 @@
         <v>212</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D125">
         <v>40</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2336,13 +2693,16 @@
         <v>218</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D126">
         <v>40</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2350,13 +2710,16 @@
         <v>208</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D127">
         <v>40</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2364,10 +2727,13 @@
         <v>200</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D128">
         <v>10</v>
+      </c>
+      <c r="E128" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,6 +2749,9 @@
       <c r="D129">
         <v>20</v>
       </c>
+      <c r="E129" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -2392,10 +2761,13 @@
         <v>219</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D130">
         <v>20</v>
+      </c>
+      <c r="E130" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2406,10 +2778,13 @@
         <v>226</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D131">
         <v>20</v>
+      </c>
+      <c r="E131" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -2425,6 +2800,9 @@
       <c r="D132">
         <v>65</v>
       </c>
+      <c r="E132" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -2434,10 +2812,13 @@
         <v>230</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D133">
         <v>20</v>
+      </c>
+      <c r="E133" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -2453,6 +2834,9 @@
       <c r="D134">
         <v>70</v>
       </c>
+      <c r="E134" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -2468,7 +2852,7 @@
         <v>80</v>
       </c>
       <c r="E135" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -2479,10 +2863,13 @@
         <v>226</v>
       </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D136">
         <v>60</v>
+      </c>
+      <c r="E136" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2493,10 +2880,13 @@
         <v>229</v>
       </c>
       <c r="C137" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D137">
         <v>70</v>
+      </c>
+      <c r="E137" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -2507,10 +2897,13 @@
         <v>229</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D138">
         <v>40</v>
+      </c>
+      <c r="E138" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -2526,6 +2919,9 @@
       <c r="D139">
         <v>45</v>
       </c>
+      <c r="E139" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -2540,6 +2936,9 @@
       <c r="D140">
         <v>60</v>
       </c>
+      <c r="E140" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -2554,6 +2953,9 @@
       <c r="D141">
         <v>10</v>
       </c>
+      <c r="E141" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -2568,6 +2970,9 @@
       <c r="D142">
         <v>50</v>
       </c>
+      <c r="E142" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -2582,6 +2987,9 @@
       <c r="D143">
         <v>40</v>
       </c>
+      <c r="E143" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
@@ -2596,8 +3004,11 @@
       <c r="D144">
         <v>40</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2605,13 +3016,16 @@
         <v>308</v>
       </c>
       <c r="C145" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D145">
         <v>40</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2619,13 +3033,16 @@
         <v>312</v>
       </c>
       <c r="C146" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D146">
         <v>10</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2633,13 +3050,16 @@
         <v>316</v>
       </c>
       <c r="C147" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D147">
         <v>40</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2647,13 +3067,16 @@
         <v>316</v>
       </c>
       <c r="C148" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D148">
         <v>50</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2661,13 +3084,16 @@
         <v>317</v>
       </c>
       <c r="C149" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D149">
         <v>10</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2680,8 +3106,11 @@
       <c r="D150">
         <v>30</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2694,8 +3123,11 @@
       <c r="D151">
         <v>35</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2708,8 +3140,11 @@
       <c r="D152">
         <v>50</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -2717,13 +3152,16 @@
         <v>328</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D153">
         <v>40</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -2731,13 +3169,16 @@
         <v>337</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D154">
         <v>50</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -2750,8 +3191,11 @@
       <c r="D155">
         <v>75</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -2764,8 +3208,11 @@
       <c r="D156">
         <v>45</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -2778,8 +3225,11 @@
       <c r="D157">
         <v>40</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -2787,13 +3237,16 @@
         <v>339</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D158">
         <v>35</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -2801,13 +3254,16 @@
         <v>338</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D159">
         <v>10</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -2815,13 +3271,16 @@
         <v>337</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D160">
         <v>40</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -2834,8 +3293,11 @@
       <c r="D161">
         <v>40</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -2848,8 +3310,11 @@
       <c r="D162">
         <v>40</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -2862,8 +3327,11 @@
       <c r="D163">
         <v>30</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -2876,8 +3344,11 @@
       <c r="D164">
         <v>30</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -2885,13 +3356,16 @@
         <v>348</v>
       </c>
       <c r="C165" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D165">
         <v>10</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -2904,8 +3378,11 @@
       <c r="D166">
         <v>85</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -2918,8 +3395,11 @@
       <c r="D167">
         <v>85</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -2927,13 +3407,16 @@
         <v>300</v>
       </c>
       <c r="C168" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D168">
         <v>15</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -2946,8 +3429,11 @@
       <c r="D169">
         <v>20</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -2960,8 +3446,11 @@
       <c r="D170">
         <v>15</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -2974,8 +3463,11 @@
       <c r="D171">
         <v>45</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -2983,13 +3475,16 @@
         <v>408</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D172">
         <v>25</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -2997,13 +3492,16 @@
         <v>408</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D173">
         <v>75</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3016,8 +3514,11 @@
       <c r="D174">
         <v>100</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3025,13 +3526,16 @@
         <v>406</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D175">
         <v>35</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3039,13 +3543,16 @@
         <v>406</v>
       </c>
       <c r="C176" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D176">
         <v>85</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -3058,8 +3565,11 @@
       <c r="D177">
         <v>40</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -3072,8 +3582,11 @@
       <c r="D178">
         <v>40</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -3086,8 +3599,11 @@
       <c r="D179">
         <v>80</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -3100,8 +3616,11 @@
       <c r="D180">
         <v>70</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3114,8 +3633,11 @@
       <c r="D181">
         <v>70</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3128,8 +3650,11 @@
       <c r="D182">
         <v>30</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3142,8 +3667,11 @@
       <c r="D183">
         <v>35</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -3156,8 +3684,11 @@
       <c r="D184">
         <v>75</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -3170,8 +3701,11 @@
       <c r="D185">
         <v>90</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -3184,8 +3718,11 @@
       <c r="D186">
         <v>60</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -3193,13 +3730,16 @@
         <v>417</v>
       </c>
       <c r="C187" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D187">
         <v>25</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3207,13 +3747,16 @@
         <v>417</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D188">
         <v>25</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -3221,13 +3764,16 @@
         <v>413</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D189">
         <v>75</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3235,13 +3781,16 @@
         <v>413</v>
       </c>
       <c r="C190" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D190">
         <v>90</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -3254,8 +3803,11 @@
       <c r="D191">
         <v>27</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -3263,13 +3815,16 @@
         <v>406</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D192">
         <v>10</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -3277,13 +3832,16 @@
         <v>406</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D193">
         <v>20</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -3296,8 +3854,11 @@
       <c r="D194">
         <v>55</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3305,13 +3866,16 @@
         <v>403</v>
       </c>
       <c r="C195" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D195">
         <v>25</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -3319,13 +3883,16 @@
         <v>403</v>
       </c>
       <c r="C196" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D196">
         <v>30</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -3338,8 +3905,11 @@
       <c r="D197">
         <v>45</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -3347,13 +3917,16 @@
         <v>405</v>
       </c>
       <c r="C198" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D198">
         <v>20</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -3366,8 +3939,11 @@
       <c r="D199">
         <v>35</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -3380,8 +3956,11 @@
       <c r="D200">
         <v>20</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3389,13 +3968,16 @@
         <v>402</v>
       </c>
       <c r="C201" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D201">
         <v>10</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3408,8 +3990,11 @@
       <c r="D202">
         <v>30</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3422,8 +4007,11 @@
       <c r="D203">
         <v>30</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3431,13 +4019,16 @@
         <v>424</v>
       </c>
       <c r="C204" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D204">
         <v>35</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3445,13 +4036,16 @@
         <v>424</v>
       </c>
       <c r="C205" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D205">
         <v>35</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3464,8 +4058,11 @@
       <c r="D206">
         <v>45</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3478,8 +4075,11 @@
       <c r="D207">
         <v>35</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3492,8 +4092,11 @@
       <c r="D208">
         <v>45</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -3506,8 +4109,11 @@
       <c r="D209">
         <v>45</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -3515,13 +4121,16 @@
         <v>101</v>
       </c>
       <c r="C210" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D210">
         <v>30</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -3529,13 +4138,16 @@
         <v>102</v>
       </c>
       <c r="C211" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D211">
         <v>30</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -3543,13 +4155,16 @@
         <v>105</v>
       </c>
       <c r="C212" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D212">
         <v>30</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -3557,13 +4172,16 @@
         <v>105</v>
       </c>
       <c r="C213" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D213">
         <v>20</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -3571,13 +4189,16 @@
         <v>100</v>
       </c>
       <c r="C214" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D214">
         <v>60</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -3585,13 +4206,16 @@
         <v>131</v>
       </c>
       <c r="C215" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D215">
         <v>60</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -3599,13 +4223,16 @@
         <v>130</v>
       </c>
       <c r="C216" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D216">
         <v>60</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -3618,8 +4245,11 @@
       <c r="D217">
         <v>45</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -3632,8 +4262,11 @@
       <c r="D218">
         <v>45</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -3646,8 +4279,11 @@
       <c r="D219">
         <v>20</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -3660,8 +4296,11 @@
       <c r="D220">
         <v>20</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -3674,8 +4313,11 @@
       <c r="D221">
         <v>90</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -3688,8 +4330,11 @@
       <c r="D222">
         <v>60</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -3697,13 +4342,16 @@
         <v>133</v>
       </c>
       <c r="C223" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D223">
         <v>60</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -3711,13 +4359,16 @@
         <v>135</v>
       </c>
       <c r="C224" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D224">
         <v>70</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -3730,8 +4381,11 @@
       <c r="D225">
         <v>80</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -3744,8 +4398,11 @@
       <c r="D226">
         <v>110</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -3753,13 +4410,16 @@
         <v>170</v>
       </c>
       <c r="C227" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D227">
         <v>80</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -3767,13 +4427,16 @@
         <v>160</v>
       </c>
       <c r="C228" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D228">
         <v>105</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -3781,41 +4444,50 @@
         <v>183</v>
       </c>
       <c r="C229" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D229">
         <v>80</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C230" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D230">
         <v>70</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C231" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D231">
         <v>70</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -3823,13 +4495,16 @@
         <v>160</v>
       </c>
       <c r="C232" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D232">
         <v>40</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -3837,13 +4512,16 @@
         <v>160</v>
       </c>
       <c r="C233" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D233">
         <v>40</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -3851,13 +4529,16 @@
         <v>170</v>
       </c>
       <c r="C234" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D234">
         <v>45</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -3865,13 +4546,16 @@
         <v>170</v>
       </c>
       <c r="C235" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D235">
         <v>45</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -3879,13 +4563,16 @@
         <v>183</v>
       </c>
       <c r="C236" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D236">
         <v>35</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -3893,13 +4580,16 @@
         <v>183</v>
       </c>
       <c r="C237" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D237">
         <v>20</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -3912,8 +4602,11 @@
       <c r="D238">
         <v>45</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -3921,13 +4614,16 @@
         <v>164</v>
       </c>
       <c r="C239" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D239">
         <v>10</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -3940,8 +4636,11 @@
       <c r="D240">
         <v>30</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -3949,13 +4648,16 @@
         <v>169</v>
       </c>
       <c r="C241" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D241">
         <v>10</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -3963,13 +4665,16 @@
         <v>164</v>
       </c>
       <c r="C242" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D242">
         <v>20</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -3977,13 +4682,16 @@
         <v>183</v>
       </c>
       <c r="C243" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D243">
         <v>30</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -3991,13 +4699,16 @@
         <v>170</v>
       </c>
       <c r="C244" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D244">
         <v>50</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -4010,8 +4721,11 @@
       <c r="D245">
         <v>30</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -4024,8 +4738,11 @@
       <c r="D246">
         <v>15</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -4038,8 +4755,11 @@
       <c r="D247">
         <v>35</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -4052,8 +4772,11 @@
       <c r="D248">
         <v>40</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -4066,8 +4789,11 @@
       <c r="D249">
         <v>40</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -4080,8 +4806,11 @@
       <c r="D250">
         <v>50</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -4094,8 +4823,11 @@
       <c r="D251">
         <v>35</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -4108,8 +4840,11 @@
       <c r="D252">
         <v>45</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -4122,8 +4857,11 @@
       <c r="D253">
         <v>45</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -4131,52 +4869,64 @@
         <v>173</v>
       </c>
       <c r="C254" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D254">
         <v>20</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C255" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D255">
         <v>180</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C256" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D256">
         <v>220</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C257" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D257">
         <v>180</v>
+      </c>
+      <c r="E257" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/2019/D/code/data.xlsx
+++ b/2019/D/code/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4828F69F-5A04-4059-B2E7-A2F8274748B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFAD5B9-05F1-4920-80BC-548973DDB9E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="308">
   <si>
     <t>s15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,8 +226,778 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>capacity</t>
+    <t>p000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p003</t>
+  </si>
+  <si>
+    <t>p004</t>
+  </si>
+  <si>
+    <t>p005</t>
+  </si>
+  <si>
+    <t>p006</t>
+  </si>
+  <si>
+    <t>p007</t>
+  </si>
+  <si>
+    <t>p008</t>
+  </si>
+  <si>
+    <t>p009</t>
+  </si>
+  <si>
+    <t>p010</t>
+  </si>
+  <si>
+    <t>p011</t>
+  </si>
+  <si>
+    <t>p012</t>
+  </si>
+  <si>
+    <t>p013</t>
+  </si>
+  <si>
+    <t>p014</t>
+  </si>
+  <si>
+    <t>p015</t>
+  </si>
+  <si>
+    <t>p016</t>
+  </si>
+  <si>
+    <t>p017</t>
+  </si>
+  <si>
+    <t>p018</t>
+  </si>
+  <si>
+    <t>p019</t>
+  </si>
+  <si>
+    <t>p020</t>
+  </si>
+  <si>
+    <t>p021</t>
+  </si>
+  <si>
+    <t>p022</t>
+  </si>
+  <si>
+    <t>p023</t>
+  </si>
+  <si>
+    <t>p024</t>
+  </si>
+  <si>
+    <t>p025</t>
+  </si>
+  <si>
+    <t>p026</t>
+  </si>
+  <si>
+    <t>p027</t>
+  </si>
+  <si>
+    <t>p028</t>
+  </si>
+  <si>
+    <t>p029</t>
+  </si>
+  <si>
+    <t>p030</t>
+  </si>
+  <si>
+    <t>p031</t>
+  </si>
+  <si>
+    <t>p032</t>
+  </si>
+  <si>
+    <t>p033</t>
+  </si>
+  <si>
+    <t>p034</t>
+  </si>
+  <si>
+    <t>p035</t>
+  </si>
+  <si>
+    <t>p036</t>
+  </si>
+  <si>
+    <t>p037</t>
+  </si>
+  <si>
+    <t>p038</t>
+  </si>
+  <si>
+    <t>p039</t>
+  </si>
+  <si>
+    <t>p040</t>
+  </si>
+  <si>
+    <t>p041</t>
+  </si>
+  <si>
+    <t>p042</t>
+  </si>
+  <si>
+    <t>p043</t>
+  </si>
+  <si>
+    <t>p044</t>
+  </si>
+  <si>
+    <t>p045</t>
+  </si>
+  <si>
+    <t>p046</t>
+  </si>
+  <si>
+    <t>p047</t>
+  </si>
+  <si>
+    <t>p048</t>
+  </si>
+  <si>
+    <t>p049</t>
+  </si>
+  <si>
+    <t>p050</t>
+  </si>
+  <si>
+    <t>p051</t>
+  </si>
+  <si>
+    <t>p052</t>
+  </si>
+  <si>
+    <t>p053</t>
+  </si>
+  <si>
+    <t>p054</t>
+  </si>
+  <si>
+    <t>p055</t>
+  </si>
+  <si>
+    <t>p056</t>
+  </si>
+  <si>
+    <t>p057</t>
+  </si>
+  <si>
+    <t>p058</t>
+  </si>
+  <si>
+    <t>p059</t>
+  </si>
+  <si>
+    <t>p060</t>
+  </si>
+  <si>
+    <t>p061</t>
+  </si>
+  <si>
+    <t>p062</t>
+  </si>
+  <si>
+    <t>p063</t>
+  </si>
+  <si>
+    <t>p064</t>
+  </si>
+  <si>
+    <t>p065</t>
+  </si>
+  <si>
+    <t>p066</t>
+  </si>
+  <si>
+    <t>p067</t>
+  </si>
+  <si>
+    <t>p068</t>
+  </si>
+  <si>
+    <t>p069</t>
+  </si>
+  <si>
+    <t>p070</t>
+  </si>
+  <si>
+    <t>p071</t>
+  </si>
+  <si>
+    <t>p072</t>
+  </si>
+  <si>
+    <t>p073</t>
+  </si>
+  <si>
+    <t>p074</t>
+  </si>
+  <si>
+    <t>p075</t>
+  </si>
+  <si>
+    <t>p076</t>
+  </si>
+  <si>
+    <t>p077</t>
+  </si>
+  <si>
+    <t>p078</t>
+  </si>
+  <si>
+    <t>p079</t>
+  </si>
+  <si>
+    <t>p080</t>
+  </si>
+  <si>
+    <t>p081</t>
+  </si>
+  <si>
+    <t>p082</t>
+  </si>
+  <si>
+    <t>p083</t>
+  </si>
+  <si>
+    <t>p084</t>
+  </si>
+  <si>
+    <t>p085</t>
+  </si>
+  <si>
+    <t>p086</t>
+  </si>
+  <si>
+    <t>p087</t>
+  </si>
+  <si>
+    <t>p088</t>
+  </si>
+  <si>
+    <t>p089</t>
+  </si>
+  <si>
+    <t>p090</t>
+  </si>
+  <si>
+    <t>p091</t>
+  </si>
+  <si>
+    <t>p092</t>
+  </si>
+  <si>
+    <t>p093</t>
+  </si>
+  <si>
+    <t>p094</t>
+  </si>
+  <si>
+    <t>p095</t>
+  </si>
+  <si>
+    <t>p096</t>
+  </si>
+  <si>
+    <t>p097</t>
+  </si>
+  <si>
+    <t>p098</t>
+  </si>
+  <si>
+    <t>p099</t>
+  </si>
+  <si>
+    <t>p100</t>
+  </si>
+  <si>
+    <t>p101</t>
+  </si>
+  <si>
+    <t>p102</t>
+  </si>
+  <si>
+    <t>p103</t>
+  </si>
+  <si>
+    <t>p104</t>
+  </si>
+  <si>
+    <t>p105</t>
+  </si>
+  <si>
+    <t>p106</t>
+  </si>
+  <si>
+    <t>p107</t>
+  </si>
+  <si>
+    <t>p108</t>
+  </si>
+  <si>
+    <t>p109</t>
+  </si>
+  <si>
+    <t>p110</t>
+  </si>
+  <si>
+    <t>p111</t>
+  </si>
+  <si>
+    <t>p112</t>
+  </si>
+  <si>
+    <t>p113</t>
+  </si>
+  <si>
+    <t>p114</t>
+  </si>
+  <si>
+    <t>p115</t>
+  </si>
+  <si>
+    <t>p116</t>
+  </si>
+  <si>
+    <t>p117</t>
+  </si>
+  <si>
+    <t>p118</t>
+  </si>
+  <si>
+    <t>p119</t>
+  </si>
+  <si>
+    <t>p120</t>
+  </si>
+  <si>
+    <t>p121</t>
+  </si>
+  <si>
+    <t>p122</t>
+  </si>
+  <si>
+    <t>p123</t>
+  </si>
+  <si>
+    <t>p124</t>
+  </si>
+  <si>
+    <t>p125</t>
+  </si>
+  <si>
+    <t>p126</t>
+  </si>
+  <si>
+    <t>p127</t>
+  </si>
+  <si>
+    <t>p128</t>
+  </si>
+  <si>
+    <t>p129</t>
+  </si>
+  <si>
+    <t>p130</t>
+  </si>
+  <si>
+    <t>p131</t>
+  </si>
+  <si>
+    <t>p132</t>
+  </si>
+  <si>
+    <t>p133</t>
+  </si>
+  <si>
+    <t>p134</t>
+  </si>
+  <si>
+    <t>p135</t>
+  </si>
+  <si>
+    <t>p136</t>
+  </si>
+  <si>
+    <t>p137</t>
+  </si>
+  <si>
+    <t>p138</t>
+  </si>
+  <si>
+    <t>p139</t>
+  </si>
+  <si>
+    <t>p140</t>
+  </si>
+  <si>
+    <t>p141</t>
+  </si>
+  <si>
+    <t>p142</t>
+  </si>
+  <si>
+    <t>p143</t>
+  </si>
+  <si>
+    <t>p144</t>
+  </si>
+  <si>
+    <t>p145</t>
+  </si>
+  <si>
+    <t>p146</t>
+  </si>
+  <si>
+    <t>p147</t>
+  </si>
+  <si>
+    <t>p148</t>
+  </si>
+  <si>
+    <t>p149</t>
+  </si>
+  <si>
+    <t>p150</t>
+  </si>
+  <si>
+    <t>p151</t>
+  </si>
+  <si>
+    <t>p152</t>
+  </si>
+  <si>
+    <t>p153</t>
+  </si>
+  <si>
+    <t>p154</t>
+  </si>
+  <si>
+    <t>p155</t>
+  </si>
+  <si>
+    <t>p156</t>
+  </si>
+  <si>
+    <t>p157</t>
+  </si>
+  <si>
+    <t>p158</t>
+  </si>
+  <si>
+    <t>p159</t>
+  </si>
+  <si>
+    <t>p160</t>
+  </si>
+  <si>
+    <t>p161</t>
+  </si>
+  <si>
+    <t>p162</t>
+  </si>
+  <si>
+    <t>p163</t>
+  </si>
+  <si>
+    <t>p164</t>
+  </si>
+  <si>
+    <t>p165</t>
+  </si>
+  <si>
+    <t>p166</t>
+  </si>
+  <si>
+    <t>p167</t>
+  </si>
+  <si>
+    <t>p168</t>
+  </si>
+  <si>
+    <t>p169</t>
+  </si>
+  <si>
+    <t>p170</t>
+  </si>
+  <si>
+    <t>p171</t>
+  </si>
+  <si>
+    <t>p172</t>
+  </si>
+  <si>
+    <t>p173</t>
+  </si>
+  <si>
+    <t>p174</t>
+  </si>
+  <si>
+    <t>p175</t>
+  </si>
+  <si>
+    <t>p176</t>
+  </si>
+  <si>
+    <t>p177</t>
+  </si>
+  <si>
+    <t>p178</t>
+  </si>
+  <si>
+    <t>p179</t>
+  </si>
+  <si>
+    <t>p180</t>
+  </si>
+  <si>
+    <t>p181</t>
+  </si>
+  <si>
+    <t>p182</t>
+  </si>
+  <si>
+    <t>p183</t>
+  </si>
+  <si>
+    <t>p184</t>
+  </si>
+  <si>
+    <t>p185</t>
+  </si>
+  <si>
+    <t>p186</t>
+  </si>
+  <si>
+    <t>p187</t>
+  </si>
+  <si>
+    <t>p188</t>
+  </si>
+  <si>
+    <t>p189</t>
+  </si>
+  <si>
+    <t>p190</t>
+  </si>
+  <si>
+    <t>p191</t>
+  </si>
+  <si>
+    <t>p192</t>
+  </si>
+  <si>
+    <t>p193</t>
+  </si>
+  <si>
+    <t>p194</t>
+  </si>
+  <si>
+    <t>p195</t>
+  </si>
+  <si>
+    <t>p196</t>
+  </si>
+  <si>
+    <t>p197</t>
+  </si>
+  <si>
+    <t>p198</t>
+  </si>
+  <si>
+    <t>p199</t>
+  </si>
+  <si>
+    <t>p200</t>
+  </si>
+  <si>
+    <t>p201</t>
+  </si>
+  <si>
+    <t>p202</t>
+  </si>
+  <si>
+    <t>p203</t>
+  </si>
+  <si>
+    <t>p204</t>
+  </si>
+  <si>
+    <t>p205</t>
+  </si>
+  <si>
+    <t>p206</t>
+  </si>
+  <si>
+    <t>p207</t>
+  </si>
+  <si>
+    <t>p208</t>
+  </si>
+  <si>
+    <t>p209</t>
+  </si>
+  <si>
+    <t>p210</t>
+  </si>
+  <si>
+    <t>p211</t>
+  </si>
+  <si>
+    <t>p212</t>
+  </si>
+  <si>
+    <t>p213</t>
+  </si>
+  <si>
+    <t>p214</t>
+  </si>
+  <si>
+    <t>p215</t>
+  </si>
+  <si>
+    <t>p216</t>
+  </si>
+  <si>
+    <t>p217</t>
+  </si>
+  <si>
+    <t>p218</t>
+  </si>
+  <si>
+    <t>p219</t>
+  </si>
+  <si>
+    <t>p220</t>
+  </si>
+  <si>
+    <t>p221</t>
+  </si>
+  <si>
+    <t>p222</t>
+  </si>
+  <si>
+    <t>p223</t>
+  </si>
+  <si>
+    <t>p224</t>
+  </si>
+  <si>
+    <t>p225</t>
+  </si>
+  <si>
+    <t>p226</t>
+  </si>
+  <si>
+    <t>p227</t>
+  </si>
+  <si>
+    <t>p228</t>
+  </si>
+  <si>
+    <t>p229</t>
+  </si>
+  <si>
+    <t>p230</t>
+  </si>
+  <si>
+    <t>p231</t>
+  </si>
+  <si>
+    <t>p232</t>
+  </si>
+  <si>
+    <t>p233</t>
+  </si>
+  <si>
+    <t>p234</t>
+  </si>
+  <si>
+    <t>p235</t>
+  </si>
+  <si>
+    <t>p236</t>
+  </si>
+  <si>
+    <t>p237</t>
+  </si>
+  <si>
+    <t>p238</t>
+  </si>
+  <si>
+    <t>p239</t>
+  </si>
+  <si>
+    <t>p240</t>
+  </si>
+  <si>
+    <t>p241</t>
+  </si>
+  <si>
+    <t>p242</t>
+  </si>
+  <si>
+    <t>p243</t>
+  </si>
+  <si>
+    <t>p244</t>
+  </si>
+  <si>
+    <t>p245</t>
+  </si>
+  <si>
+    <t>p246</t>
+  </si>
+  <si>
+    <t>p247</t>
+  </si>
+  <si>
+    <t>p248</t>
+  </si>
+  <si>
+    <t>p249</t>
+  </si>
+  <si>
+    <t>p250</t>
+  </si>
+  <si>
+    <t>p251</t>
+  </si>
+  <si>
+    <t>p252</t>
+  </si>
+  <si>
+    <t>p253</t>
+  </si>
+  <si>
+    <t>p254</t>
+  </si>
+  <si>
+    <t>p255</t>
+  </si>
+  <si>
+    <t>p256</t>
   </si>
 </sst>
 </file>
@@ -554,15 +1324,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="G254" sqref="G254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>51</v>
       </c>
       <c r="B1">
         <v>864</v>
@@ -573,13 +1343,13 @@
       <c r="D1">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
-        <v>51</v>
+      <c r="E1">
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>52</v>
       </c>
       <c r="B2">
         <v>848</v>
@@ -590,13 +1360,13 @@
       <c r="D2">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
-        <v>51</v>
+      <c r="E2">
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>53</v>
       </c>
       <c r="B3">
         <v>848</v>
@@ -607,13 +1377,13 @@
       <c r="D3">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
-        <v>51</v>
+      <c r="E3">
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>54</v>
       </c>
       <c r="B4">
         <v>848</v>
@@ -624,13 +1394,13 @@
       <c r="D4">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
-        <v>51</v>
+      <c r="E4">
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>55</v>
       </c>
       <c r="B5">
         <v>855</v>
@@ -641,13 +1411,13 @@
       <c r="D5">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>51</v>
+      <c r="E5">
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>56</v>
       </c>
       <c r="B6">
         <v>855</v>
@@ -658,13 +1428,13 @@
       <c r="D6">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>51</v>
+      <c r="E6">
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>57</v>
       </c>
       <c r="B7">
         <v>803</v>
@@ -675,13 +1445,13 @@
       <c r="D7">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
-        <v>51</v>
+      <c r="E7">
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>58</v>
       </c>
       <c r="B8">
         <v>811</v>
@@ -692,13 +1462,13 @@
       <c r="D8">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
-        <v>51</v>
+      <c r="E8">
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>59</v>
       </c>
       <c r="B9">
         <v>845</v>
@@ -709,13 +1479,13 @@
       <c r="D9">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
-        <v>51</v>
+      <c r="E9">
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>60</v>
       </c>
       <c r="B10">
         <v>802</v>
@@ -726,13 +1496,13 @@
       <c r="D10">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
-        <v>51</v>
+      <c r="E10">
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>61</v>
       </c>
       <c r="B11">
         <v>801</v>
@@ -743,13 +1513,13 @@
       <c r="D11">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
-        <v>51</v>
+      <c r="E11">
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>62</v>
       </c>
       <c r="B12">
         <v>843</v>
@@ -760,13 +1530,13 @@
       <c r="D12">
         <v>55</v>
       </c>
-      <c r="E12" t="s">
-        <v>51</v>
+      <c r="E12">
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>63</v>
       </c>
       <c r="B13">
         <v>836</v>
@@ -777,13 +1547,13 @@
       <c r="D13">
         <v>30</v>
       </c>
-      <c r="E13" t="s">
-        <v>51</v>
+      <c r="E13">
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>64</v>
       </c>
       <c r="B14">
         <v>802</v>
@@ -794,13 +1564,13 @@
       <c r="D14">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
-        <v>51</v>
+      <c r="E14">
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>65</v>
       </c>
       <c r="B15">
         <v>800</v>
@@ -811,13 +1581,13 @@
       <c r="D15">
         <v>70</v>
       </c>
-      <c r="E15" t="s">
-        <v>51</v>
+      <c r="E15">
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>66</v>
       </c>
       <c r="B16">
         <v>811</v>
@@ -828,13 +1598,13 @@
       <c r="D16">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
-        <v>51</v>
+      <c r="E16">
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>67</v>
       </c>
       <c r="B17">
         <v>818</v>
@@ -845,13 +1615,13 @@
       <c r="D17">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
-        <v>51</v>
+      <c r="E17">
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>68</v>
       </c>
       <c r="B18">
         <v>825</v>
@@ -862,13 +1632,13 @@
       <c r="D18">
         <v>30</v>
       </c>
-      <c r="E18" t="s">
-        <v>51</v>
+      <c r="E18">
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
       <c r="B19">
         <v>835</v>
@@ -879,13 +1649,13 @@
       <c r="D19">
         <v>70</v>
       </c>
-      <c r="E19" t="s">
-        <v>51</v>
+      <c r="E19">
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>70</v>
       </c>
       <c r="B20">
         <v>830</v>
@@ -896,13 +1666,13 @@
       <c r="D20">
         <v>20</v>
       </c>
-      <c r="E20" t="s">
-        <v>51</v>
+      <c r="E20">
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" t="s">
+        <v>71</v>
       </c>
       <c r="B21">
         <v>909</v>
@@ -913,13 +1683,13 @@
       <c r="D21">
         <v>71</v>
       </c>
-      <c r="E21" t="s">
-        <v>51</v>
+      <c r="E21">
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>72</v>
       </c>
       <c r="B22">
         <v>912</v>
@@ -930,13 +1700,13 @@
       <c r="D22">
         <v>20</v>
       </c>
-      <c r="E22" t="s">
-        <v>51</v>
+      <c r="E22">
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" t="s">
+        <v>73</v>
       </c>
       <c r="B23">
         <v>913</v>
@@ -947,13 +1717,13 @@
       <c r="D23">
         <v>20</v>
       </c>
-      <c r="E23" t="s">
-        <v>51</v>
+      <c r="E23">
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" t="s">
+        <v>74</v>
       </c>
       <c r="B24">
         <v>912</v>
@@ -964,13 +1734,13 @@
       <c r="D24">
         <v>30</v>
       </c>
-      <c r="E24" t="s">
-        <v>51</v>
+      <c r="E24">
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" t="s">
+        <v>75</v>
       </c>
       <c r="B25">
         <v>913</v>
@@ -981,13 +1751,13 @@
       <c r="D25">
         <v>70</v>
       </c>
-      <c r="E25" t="s">
-        <v>51</v>
+      <c r="E25">
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
+      <c r="A26" t="s">
+        <v>76</v>
       </c>
       <c r="B26">
         <v>913</v>
@@ -998,13 +1768,13 @@
       <c r="D26">
         <v>110</v>
       </c>
-      <c r="E26" t="s">
-        <v>51</v>
+      <c r="E26">
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" t="s">
+        <v>77</v>
       </c>
       <c r="B27">
         <v>917</v>
@@ -1015,13 +1785,13 @@
       <c r="D27">
         <v>50</v>
       </c>
-      <c r="E27" t="s">
-        <v>51</v>
+      <c r="E27">
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" t="s">
+        <v>78</v>
       </c>
       <c r="B28">
         <v>917</v>
@@ -1032,13 +1802,13 @@
       <c r="D28">
         <v>50</v>
       </c>
-      <c r="E28" t="s">
-        <v>51</v>
+      <c r="E28">
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" t="s">
+        <v>79</v>
       </c>
       <c r="B29">
         <v>924</v>
@@ -1049,13 +1819,13 @@
       <c r="D29">
         <v>73</v>
       </c>
-      <c r="E29" t="s">
-        <v>51</v>
+      <c r="E29">
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" t="s">
+        <v>80</v>
       </c>
       <c r="B30">
         <v>931</v>
@@ -1066,13 +1836,13 @@
       <c r="D30">
         <v>30</v>
       </c>
-      <c r="E30" t="s">
-        <v>51</v>
+      <c r="E30">
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
+      <c r="A31" t="s">
+        <v>81</v>
       </c>
       <c r="B31">
         <v>936</v>
@@ -1083,13 +1853,13 @@
       <c r="D31">
         <v>60</v>
       </c>
-      <c r="E31" t="s">
-        <v>51</v>
+      <c r="E31">
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
+      <c r="A32" t="s">
+        <v>82</v>
       </c>
       <c r="B32">
         <v>940</v>
@@ -1100,13 +1870,13 @@
       <c r="D32">
         <v>40</v>
       </c>
-      <c r="E32" t="s">
-        <v>51</v>
+      <c r="E32">
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
+      <c r="A33" t="s">
+        <v>83</v>
       </c>
       <c r="B33">
         <v>940</v>
@@ -1117,13 +1887,13 @@
       <c r="D33">
         <v>40</v>
       </c>
-      <c r="E33" t="s">
-        <v>51</v>
+      <c r="E33">
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
+      <c r="A34" t="s">
+        <v>84</v>
       </c>
       <c r="B34">
         <v>952</v>
@@ -1134,13 +1904,13 @@
       <c r="D34">
         <v>60</v>
       </c>
-      <c r="E34" t="s">
-        <v>51</v>
+      <c r="E34">
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
+      <c r="A35" t="s">
+        <v>85</v>
       </c>
       <c r="B35">
         <v>952</v>
@@ -1151,13 +1921,13 @@
       <c r="D35">
         <v>10</v>
       </c>
-      <c r="E35" t="s">
-        <v>51</v>
+      <c r="E35">
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
+      <c r="A36" t="s">
+        <v>86</v>
       </c>
       <c r="B36">
         <v>900</v>
@@ -1168,13 +1938,13 @@
       <c r="D36">
         <v>10</v>
       </c>
-      <c r="E36" t="s">
-        <v>51</v>
+      <c r="E36">
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
+      <c r="A37" t="s">
+        <v>87</v>
       </c>
       <c r="B37">
         <v>900</v>
@@ -1185,13 +1955,13 @@
       <c r="D37">
         <v>40</v>
       </c>
-      <c r="E37" t="s">
-        <v>51</v>
+      <c r="E37">
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
+      <c r="A38" t="s">
+        <v>88</v>
       </c>
       <c r="B38">
         <v>909</v>
@@ -1202,13 +1972,13 @@
       <c r="D38">
         <v>40</v>
       </c>
-      <c r="E38" t="s">
-        <v>51</v>
+      <c r="E38">
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
+      <c r="A39" t="s">
+        <v>89</v>
       </c>
       <c r="B39">
         <v>558</v>
@@ -1219,13 +1989,13 @@
       <c r="D39">
         <v>60</v>
       </c>
-      <c r="E39" t="s">
-        <v>51</v>
+      <c r="E39">
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
+      <c r="A40" t="s">
+        <v>90</v>
       </c>
       <c r="B40">
         <v>552</v>
@@ -1236,13 +2006,13 @@
       <c r="D40">
         <v>40</v>
       </c>
-      <c r="E40" t="s">
-        <v>51</v>
+      <c r="E40">
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
+      <c r="A41" t="s">
+        <v>91</v>
       </c>
       <c r="B41">
         <v>557</v>
@@ -1253,13 +2023,13 @@
       <c r="D41">
         <v>35</v>
       </c>
-      <c r="E41" t="s">
-        <v>51</v>
+      <c r="E41">
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
+      <c r="A42" t="s">
+        <v>92</v>
       </c>
       <c r="B42">
         <v>505</v>
@@ -1270,13 +2040,13 @@
       <c r="D42">
         <v>35</v>
       </c>
-      <c r="E42" t="s">
-        <v>51</v>
+      <c r="E42">
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
+      <c r="A43" t="s">
+        <v>93</v>
       </c>
       <c r="B43">
         <v>507</v>
@@ -1287,13 +2057,13 @@
       <c r="D43">
         <v>40</v>
       </c>
-      <c r="E43" t="s">
-        <v>51</v>
+      <c r="E43">
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
+      <c r="A44" t="s">
+        <v>94</v>
       </c>
       <c r="B44">
         <v>517</v>
@@ -1304,13 +2074,13 @@
       <c r="D44">
         <v>40</v>
       </c>
-      <c r="E44" t="s">
-        <v>51</v>
+      <c r="E44">
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
+      <c r="A45" t="s">
+        <v>95</v>
       </c>
       <c r="B45">
         <v>552</v>
@@ -1321,13 +2091,13 @@
       <c r="D45">
         <v>25</v>
       </c>
-      <c r="E45" t="s">
-        <v>51</v>
+      <c r="E45">
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
+      <c r="A46" t="s">
+        <v>96</v>
       </c>
       <c r="B46">
         <v>548</v>
@@ -1338,13 +2108,13 @@
       <c r="D46">
         <v>50</v>
       </c>
-      <c r="E46" t="s">
-        <v>51</v>
+      <c r="E46">
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
+      <c r="A47" t="s">
+        <v>97</v>
       </c>
       <c r="B47">
         <v>544</v>
@@ -1355,13 +2125,13 @@
       <c r="D47">
         <v>50</v>
       </c>
-      <c r="E47" t="s">
-        <v>51</v>
+      <c r="E47">
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
+      <c r="A48" t="s">
+        <v>98</v>
       </c>
       <c r="B48">
         <v>535</v>
@@ -1372,13 +2142,13 @@
       <c r="D48">
         <v>40</v>
       </c>
-      <c r="E48" t="s">
-        <v>51</v>
+      <c r="E48">
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
+      <c r="A49" t="s">
+        <v>99</v>
       </c>
       <c r="B49">
         <v>500</v>
@@ -1389,13 +2159,13 @@
       <c r="D49">
         <v>25</v>
       </c>
-      <c r="E49" t="s">
-        <v>51</v>
+      <c r="E49">
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
+      <c r="A50" t="s">
+        <v>100</v>
       </c>
       <c r="B50">
         <v>535</v>
@@ -1406,13 +2176,13 @@
       <c r="D50">
         <v>10</v>
       </c>
-      <c r="E50" t="s">
-        <v>51</v>
+      <c r="E50">
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
+      <c r="A51" t="s">
+        <v>101</v>
       </c>
       <c r="B51">
         <v>503</v>
@@ -1423,13 +2193,13 @@
       <c r="D51">
         <v>25</v>
       </c>
-      <c r="E51" t="s">
-        <v>51</v>
+      <c r="E51">
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
+      <c r="A52" t="s">
+        <v>102</v>
       </c>
       <c r="B52">
         <v>503</v>
@@ -1440,13 +2210,13 @@
       <c r="D52">
         <v>25</v>
       </c>
-      <c r="E52" t="s">
-        <v>51</v>
+      <c r="E52">
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
+      <c r="A53" t="s">
+        <v>103</v>
       </c>
       <c r="B53">
         <v>517</v>
@@ -1457,13 +2227,13 @@
       <c r="D53">
         <v>30</v>
       </c>
-      <c r="E53" t="s">
-        <v>51</v>
+      <c r="E53">
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
+      <c r="A54" t="s">
+        <v>104</v>
       </c>
       <c r="B54">
         <v>516</v>
@@ -1474,13 +2244,13 @@
       <c r="D54">
         <v>30</v>
       </c>
-      <c r="E54" t="s">
-        <v>51</v>
+      <c r="E54">
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
+      <c r="A55" t="s">
+        <v>105</v>
       </c>
       <c r="B55">
         <v>500</v>
@@ -1491,13 +2261,13 @@
       <c r="D55">
         <v>70</v>
       </c>
-      <c r="E55" t="s">
-        <v>51</v>
+      <c r="E55">
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
+      <c r="A56" t="s">
+        <v>106</v>
       </c>
       <c r="B56">
         <v>516</v>
@@ -1508,13 +2278,13 @@
       <c r="D56">
         <v>35</v>
       </c>
-      <c r="E56" t="s">
-        <v>51</v>
+      <c r="E56">
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
+      <c r="A57" t="s">
+        <v>107</v>
       </c>
       <c r="B57">
         <v>531</v>
@@ -1525,13 +2295,13 @@
       <c r="D57">
         <v>20</v>
       </c>
-      <c r="E57" t="s">
-        <v>51</v>
+      <c r="E57">
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
+      <c r="A58" t="s">
+        <v>108</v>
       </c>
       <c r="B58">
         <v>557</v>
@@ -1542,13 +2312,13 @@
       <c r="D58">
         <v>30</v>
       </c>
-      <c r="E58" t="s">
-        <v>51</v>
+      <c r="E58">
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
+      <c r="A59" t="s">
+        <v>109</v>
       </c>
       <c r="B59">
         <v>505</v>
@@ -1559,13 +2329,13 @@
       <c r="D59">
         <v>20</v>
       </c>
-      <c r="E59" t="s">
-        <v>51</v>
+      <c r="E59">
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
+      <c r="A60" t="s">
+        <v>110</v>
       </c>
       <c r="B60">
         <v>526</v>
@@ -1576,13 +2346,13 @@
       <c r="D60">
         <v>25</v>
       </c>
-      <c r="E60" t="s">
-        <v>51</v>
+      <c r="E60">
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
+      <c r="A61" t="s">
+        <v>111</v>
       </c>
       <c r="B61">
         <v>526</v>
@@ -1593,13 +2363,13 @@
       <c r="D61">
         <v>20</v>
       </c>
-      <c r="E61" t="s">
-        <v>51</v>
+      <c r="E61">
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
+      <c r="A62" t="s">
+        <v>112</v>
       </c>
       <c r="B62">
         <v>606</v>
@@ -1610,13 +2380,13 @@
       <c r="D62">
         <v>20</v>
       </c>
-      <c r="E62" t="s">
-        <v>51</v>
+      <c r="E62">
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
+      <c r="A63" t="s">
+        <v>113</v>
       </c>
       <c r="B63">
         <v>605</v>
@@ -1627,13 +2397,13 @@
       <c r="D63">
         <v>63</v>
       </c>
-      <c r="E63" t="s">
-        <v>51</v>
+      <c r="E63">
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
+      <c r="A64" t="s">
+        <v>114</v>
       </c>
       <c r="B64">
         <v>605</v>
@@ -1644,13 +2414,13 @@
       <c r="D64">
         <v>100</v>
       </c>
-      <c r="E64" t="s">
-        <v>51</v>
+      <c r="E64">
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
+      <c r="A65" t="s">
+        <v>115</v>
       </c>
       <c r="B65">
         <v>617</v>
@@ -1661,13 +2431,13 @@
       <c r="D65">
         <v>40</v>
       </c>
-      <c r="E65" t="s">
-        <v>51</v>
+      <c r="E65">
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
+      <c r="A66" t="s">
+        <v>116</v>
       </c>
       <c r="B66">
         <v>617</v>
@@ -1678,13 +2448,13 @@
       <c r="D66">
         <v>20</v>
       </c>
-      <c r="E66" t="s">
-        <v>51</v>
+      <c r="E66">
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
+      <c r="A67" t="s">
+        <v>117</v>
       </c>
       <c r="B67">
         <v>632</v>
@@ -1695,13 +2465,13 @@
       <c r="D67">
         <v>30</v>
       </c>
-      <c r="E67" t="s">
-        <v>51</v>
+      <c r="E67">
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
+      <c r="A68" t="s">
+        <v>118</v>
       </c>
       <c r="B68">
         <v>632</v>
@@ -1712,13 +2482,13 @@
       <c r="D68">
         <v>30</v>
       </c>
-      <c r="E68" t="s">
-        <v>51</v>
+      <c r="E68">
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
+      <c r="A69" t="s">
+        <v>119</v>
       </c>
       <c r="B69">
         <v>633</v>
@@ -1729,13 +2499,13 @@
       <c r="D69">
         <v>10</v>
       </c>
-      <c r="E69" t="s">
-        <v>51</v>
+      <c r="E69">
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
+      <c r="A70" t="s">
+        <v>120</v>
       </c>
       <c r="B70">
         <v>633</v>
@@ -1746,13 +2516,13 @@
       <c r="D70">
         <v>30</v>
       </c>
-      <c r="E70" t="s">
-        <v>51</v>
+      <c r="E70">
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
+      <c r="A71" t="s">
+        <v>121</v>
       </c>
       <c r="B71">
         <v>635</v>
@@ -1763,13 +2533,13 @@
       <c r="D71">
         <v>50</v>
       </c>
-      <c r="E71" t="s">
-        <v>51</v>
+      <c r="E71">
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
+      <c r="A72" t="s">
+        <v>122</v>
       </c>
       <c r="B72">
         <v>636</v>
@@ -1780,13 +2550,13 @@
       <c r="D72">
         <v>65</v>
       </c>
-      <c r="E72" t="s">
-        <v>51</v>
+      <c r="E72">
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
+      <c r="A73" t="s">
+        <v>123</v>
       </c>
       <c r="B73">
         <v>640</v>
@@ -1797,13 +2567,13 @@
       <c r="D73">
         <v>25</v>
       </c>
-      <c r="E73" t="s">
-        <v>51</v>
+      <c r="E73">
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
+      <c r="A74" t="s">
+        <v>124</v>
       </c>
       <c r="B74">
         <v>640</v>
@@ -1814,13 +2584,13 @@
       <c r="D74">
         <v>30</v>
       </c>
-      <c r="E74" t="s">
-        <v>51</v>
+      <c r="E74">
+        <v>500</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
+      <c r="A75" t="s">
+        <v>125</v>
       </c>
       <c r="B75">
         <v>641</v>
@@ -1831,13 +2601,13 @@
       <c r="D75">
         <v>30</v>
       </c>
-      <c r="E75" t="s">
-        <v>51</v>
+      <c r="E75">
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
+      <c r="A76" t="s">
+        <v>126</v>
       </c>
       <c r="B76">
         <v>641</v>
@@ -1848,13 +2618,13 @@
       <c r="D76">
         <v>65</v>
       </c>
-      <c r="E76" t="s">
-        <v>51</v>
+      <c r="E76">
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
+      <c r="A77" t="s">
+        <v>127</v>
       </c>
       <c r="B77">
         <v>645</v>
@@ -1865,13 +2635,13 @@
       <c r="D77">
         <v>75</v>
       </c>
-      <c r="E77" t="s">
-        <v>51</v>
+      <c r="E77">
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
+      <c r="A78" t="s">
+        <v>128</v>
       </c>
       <c r="B78">
         <v>645</v>
@@ -1882,13 +2652,13 @@
       <c r="D78">
         <v>35</v>
       </c>
-      <c r="E78" t="s">
-        <v>51</v>
+      <c r="E78">
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
+      <c r="A79" t="s">
+        <v>129</v>
       </c>
       <c r="B79">
         <v>656</v>
@@ -1899,13 +2669,13 @@
       <c r="D79">
         <v>45</v>
       </c>
-      <c r="E79" t="s">
-        <v>51</v>
+      <c r="E79">
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
+      <c r="A80" t="s">
+        <v>130</v>
       </c>
       <c r="B80">
         <v>645</v>
@@ -1916,13 +2686,13 @@
       <c r="D80">
         <v>60</v>
       </c>
-      <c r="E80" t="s">
-        <v>51</v>
+      <c r="E80">
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
+      <c r="A81" t="s">
+        <v>131</v>
       </c>
       <c r="B81">
         <v>661</v>
@@ -1933,13 +2703,13 @@
       <c r="D81">
         <v>30</v>
       </c>
-      <c r="E81" t="s">
-        <v>51</v>
+      <c r="E81">
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
+      <c r="A82" t="s">
+        <v>132</v>
       </c>
       <c r="B82">
         <v>661</v>
@@ -1950,13 +2720,13 @@
       <c r="D82">
         <v>40</v>
       </c>
-      <c r="E82" t="s">
-        <v>51</v>
+      <c r="E82">
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
+      <c r="A83" t="s">
+        <v>133</v>
       </c>
       <c r="B83">
         <v>663</v>
@@ -1967,13 +2737,13 @@
       <c r="D83">
         <v>30</v>
       </c>
-      <c r="E83" t="s">
-        <v>51</v>
+      <c r="E83">
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
+      <c r="A84" t="s">
+        <v>134</v>
       </c>
       <c r="B84">
         <v>600</v>
@@ -1984,13 +2754,13 @@
       <c r="D84">
         <v>15</v>
       </c>
-      <c r="E84" t="s">
-        <v>51</v>
+      <c r="E84">
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
+      <c r="A85" t="s">
+        <v>135</v>
       </c>
       <c r="B85">
         <v>600</v>
@@ -2001,13 +2771,13 @@
       <c r="D85">
         <v>30</v>
       </c>
-      <c r="E85" t="s">
-        <v>51</v>
+      <c r="E85">
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
+      <c r="A86" t="s">
+        <v>136</v>
       </c>
       <c r="B86">
         <v>601</v>
@@ -2018,13 +2788,13 @@
       <c r="D86">
         <v>55</v>
       </c>
-      <c r="E86" t="s">
-        <v>51</v>
+      <c r="E86">
+        <v>500</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
+      <c r="A87" t="s">
+        <v>137</v>
       </c>
       <c r="B87">
         <v>661</v>
@@ -2035,13 +2805,13 @@
       <c r="D87">
         <v>35</v>
       </c>
-      <c r="E87" t="s">
-        <v>51</v>
+      <c r="E87">
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
+      <c r="A88" t="s">
+        <v>138</v>
       </c>
       <c r="B88">
         <v>703</v>
@@ -2052,13 +2822,13 @@
       <c r="D88">
         <v>40</v>
       </c>
-      <c r="E88" t="s">
-        <v>51</v>
+      <c r="E88">
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
+      <c r="A89" t="s">
+        <v>139</v>
       </c>
       <c r="B89">
         <v>703</v>
@@ -2069,13 +2839,13 @@
       <c r="D89">
         <v>40</v>
       </c>
-      <c r="E89" t="s">
-        <v>51</v>
+      <c r="E89">
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
+      <c r="A90" t="s">
+        <v>140</v>
       </c>
       <c r="B90">
         <v>706</v>
@@ -2086,13 +2856,13 @@
       <c r="D90">
         <v>30</v>
       </c>
-      <c r="E90" t="s">
-        <v>51</v>
+      <c r="E90">
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
+      <c r="A91" t="s">
+        <v>141</v>
       </c>
       <c r="B91">
         <v>706</v>
@@ -2103,13 +2873,13 @@
       <c r="D91">
         <v>15</v>
       </c>
-      <c r="E91" t="s">
-        <v>51</v>
+      <c r="E91">
+        <v>500</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
+      <c r="A92" t="s">
+        <v>142</v>
       </c>
       <c r="B92">
         <v>703</v>
@@ -2120,13 +2890,13 @@
       <c r="D92">
         <v>35</v>
       </c>
-      <c r="E92" t="s">
-        <v>51</v>
+      <c r="E92">
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
+      <c r="A93" t="s">
+        <v>143</v>
       </c>
       <c r="B93">
         <v>706</v>
@@ -2137,13 +2907,13 @@
       <c r="D93">
         <v>20</v>
       </c>
-      <c r="E93" t="s">
-        <v>51</v>
+      <c r="E93">
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
+      <c r="A94" t="s">
+        <v>144</v>
       </c>
       <c r="B94">
         <v>709</v>
@@ -2154,13 +2924,13 @@
       <c r="D94">
         <v>25</v>
       </c>
-      <c r="E94" t="s">
-        <v>51</v>
+      <c r="E94">
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
+      <c r="A95" t="s">
+        <v>145</v>
       </c>
       <c r="B95">
         <v>703</v>
@@ -2171,13 +2941,13 @@
       <c r="D95">
         <v>30</v>
       </c>
-      <c r="E95" t="s">
-        <v>51</v>
+      <c r="E95">
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
+      <c r="A96" t="s">
+        <v>146</v>
       </c>
       <c r="B96">
         <v>703</v>
@@ -2188,13 +2958,13 @@
       <c r="D96">
         <v>50</v>
       </c>
-      <c r="E96" t="s">
-        <v>51</v>
+      <c r="E96">
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
+      <c r="A97" t="s">
+        <v>147</v>
       </c>
       <c r="B97">
         <v>702</v>
@@ -2205,13 +2975,13 @@
       <c r="D97">
         <v>20</v>
       </c>
-      <c r="E97" t="s">
-        <v>51</v>
+      <c r="E97">
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
+      <c r="A98" t="s">
+        <v>148</v>
       </c>
       <c r="B98">
         <v>702</v>
@@ -2222,13 +2992,13 @@
       <c r="D98">
         <v>50</v>
       </c>
-      <c r="E98" t="s">
-        <v>51</v>
+      <c r="E98">
+        <v>500</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
+      <c r="A99" t="s">
+        <v>149</v>
       </c>
       <c r="B99">
         <v>702</v>
@@ -2239,13 +3009,13 @@
       <c r="D99">
         <v>40</v>
       </c>
-      <c r="E99" t="s">
-        <v>51</v>
+      <c r="E99">
+        <v>500</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
+      <c r="A100" t="s">
+        <v>150</v>
       </c>
       <c r="B100">
         <v>701</v>
@@ -2256,13 +3026,13 @@
       <c r="D100">
         <v>20</v>
       </c>
-      <c r="E100" t="s">
-        <v>51</v>
+      <c r="E100">
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
+      <c r="A101" t="s">
+        <v>151</v>
       </c>
       <c r="B101">
         <v>709</v>
@@ -2273,13 +3043,13 @@
       <c r="D101">
         <v>40</v>
       </c>
-      <c r="E101" t="s">
-        <v>51</v>
+      <c r="E101">
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
+      <c r="A102" t="s">
+        <v>152</v>
       </c>
       <c r="B102">
         <v>710</v>
@@ -2290,13 +3060,13 @@
       <c r="D102">
         <v>80</v>
       </c>
-      <c r="E102" t="s">
-        <v>51</v>
+      <c r="E102">
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>102</v>
+      <c r="A103" t="s">
+        <v>153</v>
       </c>
       <c r="B103">
         <v>701</v>
@@ -2307,13 +3077,13 @@
       <c r="D103">
         <v>35</v>
       </c>
-      <c r="E103" t="s">
-        <v>51</v>
+      <c r="E103">
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
+      <c r="A104" t="s">
+        <v>154</v>
       </c>
       <c r="B104">
         <v>700</v>
@@ -2324,13 +3094,13 @@
       <c r="D104">
         <v>70</v>
       </c>
-      <c r="E104" t="s">
-        <v>51</v>
+      <c r="E104">
+        <v>500</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>104</v>
+      <c r="A105" t="s">
+        <v>155</v>
       </c>
       <c r="B105">
         <v>700</v>
@@ -2341,13 +3111,13 @@
       <c r="D105">
         <v>30</v>
       </c>
-      <c r="E105" t="s">
-        <v>51</v>
+      <c r="E105">
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
+      <c r="A106" t="s">
+        <v>156</v>
       </c>
       <c r="B106">
         <v>715</v>
@@ -2358,13 +3128,13 @@
       <c r="D106">
         <v>30</v>
       </c>
-      <c r="E106" t="s">
-        <v>51</v>
+      <c r="E106">
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
+      <c r="A107" t="s">
+        <v>157</v>
       </c>
       <c r="B107">
         <v>700</v>
@@ -2375,13 +3145,13 @@
       <c r="D107">
         <v>25</v>
       </c>
-      <c r="E107" t="s">
-        <v>51</v>
+      <c r="E107">
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
+      <c r="A108" t="s">
+        <v>158</v>
       </c>
       <c r="B108">
         <v>712</v>
@@ -2392,13 +3162,13 @@
       <c r="D108">
         <v>65</v>
       </c>
-      <c r="E108" t="s">
-        <v>51</v>
+      <c r="E108">
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
+      <c r="A109" t="s">
+        <v>159</v>
       </c>
       <c r="B109">
         <v>712</v>
@@ -2409,13 +3179,13 @@
       <c r="D109">
         <v>85</v>
       </c>
-      <c r="E109" t="s">
-        <v>51</v>
+      <c r="E109">
+        <v>500</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
+      <c r="A110" t="s">
+        <v>160</v>
       </c>
       <c r="B110">
         <v>716</v>
@@ -2426,13 +3196,13 @@
       <c r="D110">
         <v>60</v>
       </c>
-      <c r="E110" t="s">
-        <v>51</v>
+      <c r="E110">
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
+      <c r="A111" t="s">
+        <v>161</v>
       </c>
       <c r="B111">
         <v>717</v>
@@ -2443,13 +3213,13 @@
       <c r="D111">
         <v>25</v>
       </c>
-      <c r="E111" t="s">
-        <v>51</v>
+      <c r="E111">
+        <v>500</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
+      <c r="A112" t="s">
+        <v>162</v>
       </c>
       <c r="B112">
         <v>718</v>
@@ -2460,13 +3230,13 @@
       <c r="D112">
         <v>25</v>
       </c>
-      <c r="E112" t="s">
-        <v>51</v>
+      <c r="E112">
+        <v>500</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
+      <c r="A113" t="s">
+        <v>163</v>
       </c>
       <c r="B113">
         <v>718</v>
@@ -2477,13 +3247,13 @@
       <c r="D113">
         <v>40</v>
       </c>
-      <c r="E113" t="s">
-        <v>51</v>
+      <c r="E113">
+        <v>500</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
+      <c r="A114" t="s">
+        <v>164</v>
       </c>
       <c r="B114">
         <v>717</v>
@@ -2494,13 +3264,13 @@
       <c r="D114">
         <v>25</v>
       </c>
-      <c r="E114" t="s">
-        <v>51</v>
+      <c r="E114">
+        <v>500</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
+      <c r="A115" t="s">
+        <v>165</v>
       </c>
       <c r="B115">
         <v>718</v>
@@ -2511,13 +3281,13 @@
       <c r="D115">
         <v>40</v>
       </c>
-      <c r="E115" t="s">
-        <v>51</v>
+      <c r="E115">
+        <v>500</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
+      <c r="A116" t="s">
+        <v>166</v>
       </c>
       <c r="B116">
         <v>718</v>
@@ -2528,13 +3298,13 @@
       <c r="D116">
         <v>25</v>
       </c>
-      <c r="E116" t="s">
-        <v>51</v>
+      <c r="E116">
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
+      <c r="A117" t="s">
+        <v>167</v>
       </c>
       <c r="B117">
         <v>720</v>
@@ -2545,13 +3315,13 @@
       <c r="D117">
         <v>25</v>
       </c>
-      <c r="E117" t="s">
-        <v>51</v>
+      <c r="E117">
+        <v>500</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
+      <c r="A118" t="s">
+        <v>168</v>
       </c>
       <c r="B118">
         <v>718</v>
@@ -2562,13 +3332,13 @@
       <c r="D118">
         <v>50</v>
       </c>
-      <c r="E118" t="s">
-        <v>51</v>
+      <c r="E118">
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>118</v>
+      <c r="A119" t="s">
+        <v>169</v>
       </c>
       <c r="B119">
         <v>564</v>
@@ -2579,13 +3349,13 @@
       <c r="D119">
         <v>60</v>
       </c>
-      <c r="E119" t="s">
-        <v>51</v>
+      <c r="E119">
+        <v>500</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
+      <c r="A120" t="s">
+        <v>170</v>
       </c>
       <c r="B120">
         <v>212</v>
@@ -2596,13 +3366,13 @@
       <c r="D120">
         <v>60</v>
       </c>
-      <c r="E120" t="s">
-        <v>51</v>
+      <c r="E120">
+        <v>500</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
+      <c r="A121" t="s">
+        <v>171</v>
       </c>
       <c r="B121">
         <v>212</v>
@@ -2613,13 +3383,13 @@
       <c r="D121">
         <v>65</v>
       </c>
-      <c r="E121" t="s">
-        <v>51</v>
+      <c r="E121">
+        <v>500</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
+      <c r="A122" t="s">
+        <v>172</v>
       </c>
       <c r="B122">
         <v>208</v>
@@ -2630,13 +3400,13 @@
       <c r="D122">
         <v>30</v>
       </c>
-      <c r="E122" t="s">
-        <v>51</v>
+      <c r="E122">
+        <v>500</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
+      <c r="A123" t="s">
+        <v>173</v>
       </c>
       <c r="B123">
         <v>201</v>
@@ -2647,13 +3417,13 @@
       <c r="D123">
         <v>30</v>
       </c>
-      <c r="E123" t="s">
-        <v>51</v>
+      <c r="E123">
+        <v>500</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
+      <c r="A124" t="s">
+        <v>174</v>
       </c>
       <c r="B124">
         <v>218</v>
@@ -2664,13 +3434,13 @@
       <c r="D124">
         <v>60</v>
       </c>
-      <c r="E124" t="s">
-        <v>51</v>
+      <c r="E124">
+        <v>500</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
+      <c r="A125" t="s">
+        <v>175</v>
       </c>
       <c r="B125">
         <v>212</v>
@@ -2681,13 +3451,13 @@
       <c r="D125">
         <v>40</v>
       </c>
-      <c r="E125" t="s">
-        <v>51</v>
+      <c r="E125">
+        <v>500</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
+      <c r="A126" t="s">
+        <v>176</v>
       </c>
       <c r="B126">
         <v>218</v>
@@ -2698,13 +3468,13 @@
       <c r="D126">
         <v>40</v>
       </c>
-      <c r="E126" t="s">
-        <v>51</v>
+      <c r="E126">
+        <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>126</v>
+      <c r="A127" t="s">
+        <v>177</v>
       </c>
       <c r="B127">
         <v>208</v>
@@ -2715,13 +3485,13 @@
       <c r="D127">
         <v>40</v>
       </c>
-      <c r="E127" t="s">
-        <v>51</v>
+      <c r="E127">
+        <v>500</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>127</v>
+      <c r="A128" t="s">
+        <v>178</v>
       </c>
       <c r="B128">
         <v>200</v>
@@ -2732,13 +3502,13 @@
       <c r="D128">
         <v>10</v>
       </c>
-      <c r="E128" t="s">
-        <v>51</v>
+      <c r="E128">
+        <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>128</v>
+      <c r="A129" t="s">
+        <v>179</v>
       </c>
       <c r="B129">
         <v>219</v>
@@ -2749,13 +3519,13 @@
       <c r="D129">
         <v>20</v>
       </c>
-      <c r="E129" t="s">
-        <v>51</v>
+      <c r="E129">
+        <v>500</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>129</v>
+      <c r="A130" t="s">
+        <v>180</v>
       </c>
       <c r="B130">
         <v>219</v>
@@ -2766,13 +3536,13 @@
       <c r="D130">
         <v>20</v>
       </c>
-      <c r="E130" t="s">
-        <v>51</v>
+      <c r="E130">
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>130</v>
+      <c r="A131" t="s">
+        <v>181</v>
       </c>
       <c r="B131">
         <v>226</v>
@@ -2783,13 +3553,13 @@
       <c r="D131">
         <v>20</v>
       </c>
-      <c r="E131" t="s">
-        <v>51</v>
+      <c r="E131">
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>131</v>
+      <c r="A132" t="s">
+        <v>182</v>
       </c>
       <c r="B132">
         <v>226</v>
@@ -2800,13 +3570,13 @@
       <c r="D132">
         <v>65</v>
       </c>
-      <c r="E132" t="s">
-        <v>51</v>
+      <c r="E132">
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>132</v>
+      <c r="A133" t="s">
+        <v>183</v>
       </c>
       <c r="B133">
         <v>230</v>
@@ -2817,13 +3587,13 @@
       <c r="D133">
         <v>20</v>
       </c>
-      <c r="E133" t="s">
-        <v>51</v>
+      <c r="E133">
+        <v>500</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>133</v>
+      <c r="A134" t="s">
+        <v>184</v>
       </c>
       <c r="B134">
         <v>226</v>
@@ -2834,13 +3604,13 @@
       <c r="D134">
         <v>70</v>
       </c>
-      <c r="E134" t="s">
-        <v>51</v>
+      <c r="E134">
+        <v>500</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>134</v>
+      <c r="A135" t="s">
+        <v>185</v>
       </c>
       <c r="B135">
         <v>226</v>
@@ -2851,13 +3621,13 @@
       <c r="D135">
         <v>80</v>
       </c>
-      <c r="E135" t="s">
-        <v>51</v>
+      <c r="E135">
+        <v>500</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>135</v>
+      <c r="A136" t="s">
+        <v>186</v>
       </c>
       <c r="B136">
         <v>226</v>
@@ -2868,13 +3638,13 @@
       <c r="D136">
         <v>60</v>
       </c>
-      <c r="E136" t="s">
-        <v>51</v>
+      <c r="E136">
+        <v>500</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>136</v>
+      <c r="A137" t="s">
+        <v>187</v>
       </c>
       <c r="B137">
         <v>229</v>
@@ -2885,13 +3655,13 @@
       <c r="D137">
         <v>70</v>
       </c>
-      <c r="E137" t="s">
-        <v>51</v>
+      <c r="E137">
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>137</v>
+      <c r="A138" t="s">
+        <v>188</v>
       </c>
       <c r="B138">
         <v>229</v>
@@ -2902,13 +3672,13 @@
       <c r="D138">
         <v>40</v>
       </c>
-      <c r="E138" t="s">
-        <v>51</v>
+      <c r="E138">
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>138</v>
+      <c r="A139" t="s">
+        <v>189</v>
       </c>
       <c r="B139">
         <v>229</v>
@@ -2919,13 +3689,13 @@
       <c r="D139">
         <v>45</v>
       </c>
-      <c r="E139" t="s">
-        <v>51</v>
+      <c r="E139">
+        <v>500</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>139</v>
+      <c r="A140" t="s">
+        <v>190</v>
       </c>
       <c r="B140">
         <v>229</v>
@@ -2936,13 +3706,13 @@
       <c r="D140">
         <v>60</v>
       </c>
-      <c r="E140" t="s">
-        <v>51</v>
+      <c r="E140">
+        <v>500</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>140</v>
+      <c r="A141" t="s">
+        <v>191</v>
       </c>
       <c r="B141">
         <v>231</v>
@@ -2953,13 +3723,13 @@
       <c r="D141">
         <v>10</v>
       </c>
-      <c r="E141" t="s">
-        <v>51</v>
+      <c r="E141">
+        <v>500</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>141</v>
+      <c r="A142" t="s">
+        <v>192</v>
       </c>
       <c r="B142">
         <v>305</v>
@@ -2970,13 +3740,13 @@
       <c r="D142">
         <v>50</v>
       </c>
-      <c r="E142" t="s">
-        <v>51</v>
+      <c r="E142">
+        <v>500</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>142</v>
+      <c r="A143" t="s">
+        <v>193</v>
       </c>
       <c r="B143">
         <v>308</v>
@@ -2987,13 +3757,13 @@
       <c r="D143">
         <v>40</v>
       </c>
-      <c r="E143" t="s">
-        <v>51</v>
+      <c r="E143">
+        <v>500</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>143</v>
+      <c r="A144" t="s">
+        <v>194</v>
       </c>
       <c r="B144">
         <v>312</v>
@@ -3004,13 +3774,13 @@
       <c r="D144">
         <v>40</v>
       </c>
-      <c r="E144" t="s">
-        <v>51</v>
+      <c r="E144">
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>144</v>
+      <c r="A145" t="s">
+        <v>195</v>
       </c>
       <c r="B145">
         <v>308</v>
@@ -3021,13 +3791,13 @@
       <c r="D145">
         <v>40</v>
       </c>
-      <c r="E145" t="s">
-        <v>51</v>
+      <c r="E145">
+        <v>500</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>145</v>
+      <c r="A146" t="s">
+        <v>196</v>
       </c>
       <c r="B146">
         <v>312</v>
@@ -3038,13 +3808,13 @@
       <c r="D146">
         <v>10</v>
       </c>
-      <c r="E146" t="s">
-        <v>51</v>
+      <c r="E146">
+        <v>500</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>146</v>
+      <c r="A147" t="s">
+        <v>197</v>
       </c>
       <c r="B147">
         <v>316</v>
@@ -3055,13 +3825,13 @@
       <c r="D147">
         <v>40</v>
       </c>
-      <c r="E147" t="s">
-        <v>51</v>
+      <c r="E147">
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
+      <c r="A148" t="s">
+        <v>198</v>
       </c>
       <c r="B148">
         <v>316</v>
@@ -3072,13 +3842,13 @@
       <c r="D148">
         <v>50</v>
       </c>
-      <c r="E148" t="s">
-        <v>51</v>
+      <c r="E148">
+        <v>500</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>148</v>
+      <c r="A149" t="s">
+        <v>199</v>
       </c>
       <c r="B149">
         <v>317</v>
@@ -3089,13 +3859,13 @@
       <c r="D149">
         <v>10</v>
       </c>
-      <c r="E149" t="s">
-        <v>51</v>
+      <c r="E149">
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>149</v>
+      <c r="A150" t="s">
+        <v>200</v>
       </c>
       <c r="B150">
         <v>317</v>
@@ -3106,13 +3876,13 @@
       <c r="D150">
         <v>30</v>
       </c>
-      <c r="E150" t="s">
-        <v>51</v>
+      <c r="E150">
+        <v>500</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>150</v>
+      <c r="A151" t="s">
+        <v>201</v>
       </c>
       <c r="B151">
         <v>321</v>
@@ -3123,13 +3893,13 @@
       <c r="D151">
         <v>35</v>
       </c>
-      <c r="E151" t="s">
-        <v>51</v>
+      <c r="E151">
+        <v>500</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>151</v>
+      <c r="A152" t="s">
+        <v>202</v>
       </c>
       <c r="B152">
         <v>323</v>
@@ -3140,13 +3910,13 @@
       <c r="D152">
         <v>50</v>
       </c>
-      <c r="E152" t="s">
-        <v>51</v>
+      <c r="E152">
+        <v>500</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>152</v>
+      <c r="A153" t="s">
+        <v>203</v>
       </c>
       <c r="B153">
         <v>328</v>
@@ -3157,13 +3927,13 @@
       <c r="D153">
         <v>40</v>
       </c>
-      <c r="E153" t="s">
-        <v>51</v>
+      <c r="E153">
+        <v>500</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>153</v>
+      <c r="A154" t="s">
+        <v>204</v>
       </c>
       <c r="B154">
         <v>337</v>
@@ -3174,13 +3944,13 @@
       <c r="D154">
         <v>50</v>
       </c>
-      <c r="E154" t="s">
-        <v>51</v>
+      <c r="E154">
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>154</v>
+      <c r="A155" t="s">
+        <v>205</v>
       </c>
       <c r="B155">
         <v>328</v>
@@ -3191,13 +3961,13 @@
       <c r="D155">
         <v>75</v>
       </c>
-      <c r="E155" t="s">
-        <v>51</v>
+      <c r="E155">
+        <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>155</v>
+      <c r="A156" t="s">
+        <v>206</v>
       </c>
       <c r="B156">
         <v>338</v>
@@ -3208,13 +3978,13 @@
       <c r="D156">
         <v>45</v>
       </c>
-      <c r="E156" t="s">
-        <v>51</v>
+      <c r="E156">
+        <v>500</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>156</v>
+      <c r="A157" t="s">
+        <v>207</v>
       </c>
       <c r="B157">
         <v>338</v>
@@ -3225,13 +3995,13 @@
       <c r="D157">
         <v>40</v>
       </c>
-      <c r="E157" t="s">
-        <v>51</v>
+      <c r="E157">
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>157</v>
+      <c r="A158" t="s">
+        <v>208</v>
       </c>
       <c r="B158">
         <v>339</v>
@@ -3242,13 +4012,13 @@
       <c r="D158">
         <v>35</v>
       </c>
-      <c r="E158" t="s">
-        <v>51</v>
+      <c r="E158">
+        <v>500</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>158</v>
+      <c r="A159" t="s">
+        <v>209</v>
       </c>
       <c r="B159">
         <v>338</v>
@@ -3259,13 +4029,13 @@
       <c r="D159">
         <v>10</v>
       </c>
-      <c r="E159" t="s">
-        <v>51</v>
+      <c r="E159">
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>159</v>
+      <c r="A160" t="s">
+        <v>210</v>
       </c>
       <c r="B160">
         <v>337</v>
@@ -3276,13 +4046,13 @@
       <c r="D160">
         <v>40</v>
       </c>
-      <c r="E160" t="s">
-        <v>51</v>
+      <c r="E160">
+        <v>500</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>160</v>
+      <c r="A161" t="s">
+        <v>211</v>
       </c>
       <c r="B161">
         <v>339</v>
@@ -3293,13 +4063,13 @@
       <c r="D161">
         <v>40</v>
       </c>
-      <c r="E161" t="s">
-        <v>51</v>
+      <c r="E161">
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>161</v>
+      <c r="A162" t="s">
+        <v>212</v>
       </c>
       <c r="B162">
         <v>348</v>
@@ -3310,13 +4080,13 @@
       <c r="D162">
         <v>40</v>
       </c>
-      <c r="E162" t="s">
-        <v>51</v>
+      <c r="E162">
+        <v>500</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>162</v>
+      <c r="A163" t="s">
+        <v>213</v>
       </c>
       <c r="B163">
         <v>348</v>
@@ -3327,13 +4097,13 @@
       <c r="D163">
         <v>30</v>
       </c>
-      <c r="E163" t="s">
-        <v>51</v>
+      <c r="E163">
+        <v>500</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>163</v>
+      <c r="A164" t="s">
+        <v>214</v>
       </c>
       <c r="B164">
         <v>347</v>
@@ -3344,13 +4114,13 @@
       <c r="D164">
         <v>30</v>
       </c>
-      <c r="E164" t="s">
-        <v>51</v>
+      <c r="E164">
+        <v>500</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>164</v>
+      <c r="A165" t="s">
+        <v>215</v>
       </c>
       <c r="B165">
         <v>348</v>
@@ -3361,13 +4131,13 @@
       <c r="D165">
         <v>10</v>
       </c>
-      <c r="E165" t="s">
-        <v>51</v>
+      <c r="E165">
+        <v>500</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>165</v>
+      <c r="A166" t="s">
+        <v>216</v>
       </c>
       <c r="B166">
         <v>305</v>
@@ -3378,13 +4148,13 @@
       <c r="D166">
         <v>85</v>
       </c>
-      <c r="E166" t="s">
-        <v>51</v>
+      <c r="E166">
+        <v>500</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>166</v>
+      <c r="A167" t="s">
+        <v>217</v>
       </c>
       <c r="B167">
         <v>308</v>
@@ -3395,13 +4165,13 @@
       <c r="D167">
         <v>85</v>
       </c>
-      <c r="E167" t="s">
-        <v>51</v>
+      <c r="E167">
+        <v>500</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
+      <c r="A168" t="s">
+        <v>218</v>
       </c>
       <c r="B168">
         <v>300</v>
@@ -3412,13 +4182,13 @@
       <c r="D168">
         <v>15</v>
       </c>
-      <c r="E168" t="s">
-        <v>51</v>
+      <c r="E168">
+        <v>500</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
+      <c r="A169" t="s">
+        <v>219</v>
       </c>
       <c r="B169">
         <v>347</v>
@@ -3429,13 +4199,13 @@
       <c r="D169">
         <v>20</v>
       </c>
-      <c r="E169" t="s">
-        <v>51</v>
+      <c r="E169">
+        <v>500</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
+      <c r="A170" t="s">
+        <v>220</v>
       </c>
       <c r="B170">
         <v>408</v>
@@ -3446,13 +4216,13 @@
       <c r="D170">
         <v>15</v>
       </c>
-      <c r="E170" t="s">
-        <v>51</v>
+      <c r="E170">
+        <v>500</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
+      <c r="A171" t="s">
+        <v>221</v>
       </c>
       <c r="B171">
         <v>410</v>
@@ -3463,13 +4233,13 @@
       <c r="D171">
         <v>45</v>
       </c>
-      <c r="E171" t="s">
-        <v>51</v>
+      <c r="E171">
+        <v>500</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
+      <c r="A172" t="s">
+        <v>222</v>
       </c>
       <c r="B172">
         <v>408</v>
@@ -3480,13 +4250,13 @@
       <c r="D172">
         <v>25</v>
       </c>
-      <c r="E172" t="s">
-        <v>51</v>
+      <c r="E172">
+        <v>500</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>172</v>
+      <c r="A173" t="s">
+        <v>223</v>
       </c>
       <c r="B173">
         <v>408</v>
@@ -3497,13 +4267,13 @@
       <c r="D173">
         <v>75</v>
       </c>
-      <c r="E173" t="s">
-        <v>51</v>
+      <c r="E173">
+        <v>500</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>173</v>
+      <c r="A174" t="s">
+        <v>224</v>
       </c>
       <c r="B174">
         <v>408</v>
@@ -3514,13 +4284,13 @@
       <c r="D174">
         <v>100</v>
       </c>
-      <c r="E174" t="s">
-        <v>51</v>
+      <c r="E174">
+        <v>500</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>174</v>
+      <c r="A175" t="s">
+        <v>225</v>
       </c>
       <c r="B175">
         <v>406</v>
@@ -3531,13 +4301,13 @@
       <c r="D175">
         <v>35</v>
       </c>
-      <c r="E175" t="s">
-        <v>51</v>
+      <c r="E175">
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>175</v>
+      <c r="A176" t="s">
+        <v>226</v>
       </c>
       <c r="B176">
         <v>406</v>
@@ -3548,13 +4318,13 @@
       <c r="D176">
         <v>85</v>
       </c>
-      <c r="E176" t="s">
-        <v>51</v>
+      <c r="E176">
+        <v>500</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>176</v>
+      <c r="A177" t="s">
+        <v>227</v>
       </c>
       <c r="B177">
         <v>406</v>
@@ -3565,13 +4335,13 @@
       <c r="D177">
         <v>40</v>
       </c>
-      <c r="E177" t="s">
-        <v>51</v>
+      <c r="E177">
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>177</v>
+      <c r="A178" t="s">
+        <v>228</v>
       </c>
       <c r="B178">
         <v>418</v>
@@ -3582,13 +4352,13 @@
       <c r="D178">
         <v>40</v>
       </c>
-      <c r="E178" t="s">
-        <v>51</v>
+      <c r="E178">
+        <v>500</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>178</v>
+      <c r="A179" t="s">
+        <v>229</v>
       </c>
       <c r="B179">
         <v>419</v>
@@ -3599,13 +4369,13 @@
       <c r="D179">
         <v>80</v>
       </c>
-      <c r="E179" t="s">
-        <v>51</v>
+      <c r="E179">
+        <v>500</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>179</v>
+      <c r="A180" t="s">
+        <v>230</v>
       </c>
       <c r="B180">
         <v>419</v>
@@ -3616,13 +4386,13 @@
       <c r="D180">
         <v>70</v>
       </c>
-      <c r="E180" t="s">
-        <v>51</v>
+      <c r="E180">
+        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>180</v>
+      <c r="A181" t="s">
+        <v>231</v>
       </c>
       <c r="B181">
         <v>419</v>
@@ -3633,13 +4403,13 @@
       <c r="D181">
         <v>70</v>
       </c>
-      <c r="E181" t="s">
-        <v>51</v>
+      <c r="E181">
+        <v>500</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>181</v>
+      <c r="A182" t="s">
+        <v>232</v>
       </c>
       <c r="B182">
         <v>419</v>
@@ -3650,13 +4420,13 @@
       <c r="D182">
         <v>30</v>
       </c>
-      <c r="E182" t="s">
-        <v>51</v>
+      <c r="E182">
+        <v>500</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>182</v>
+      <c r="A183" t="s">
+        <v>233</v>
       </c>
       <c r="B183">
         <v>423</v>
@@ -3667,13 +4437,13 @@
       <c r="D183">
         <v>35</v>
       </c>
-      <c r="E183" t="s">
-        <v>51</v>
+      <c r="E183">
+        <v>500</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>183</v>
+      <c r="A184" t="s">
+        <v>234</v>
       </c>
       <c r="B184">
         <v>419</v>
@@ -3684,13 +4454,13 @@
       <c r="D184">
         <v>75</v>
       </c>
-      <c r="E184" t="s">
-        <v>51</v>
+      <c r="E184">
+        <v>500</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>184</v>
+      <c r="A185" t="s">
+        <v>235</v>
       </c>
       <c r="B185">
         <v>417</v>
@@ -3701,13 +4471,13 @@
       <c r="D185">
         <v>90</v>
       </c>
-      <c r="E185" t="s">
-        <v>51</v>
+      <c r="E185">
+        <v>500</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>185</v>
+      <c r="A186" t="s">
+        <v>236</v>
       </c>
       <c r="B186">
         <v>413</v>
@@ -3718,13 +4488,13 @@
       <c r="D186">
         <v>60</v>
       </c>
-      <c r="E186" t="s">
-        <v>51</v>
+      <c r="E186">
+        <v>500</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>186</v>
+      <c r="A187" t="s">
+        <v>237</v>
       </c>
       <c r="B187">
         <v>417</v>
@@ -3735,13 +4505,13 @@
       <c r="D187">
         <v>25</v>
       </c>
-      <c r="E187" t="s">
-        <v>51</v>
+      <c r="E187">
+        <v>500</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>187</v>
+      <c r="A188" t="s">
+        <v>238</v>
       </c>
       <c r="B188">
         <v>417</v>
@@ -3752,13 +4522,13 @@
       <c r="D188">
         <v>25</v>
       </c>
-      <c r="E188" t="s">
-        <v>51</v>
+      <c r="E188">
+        <v>500</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>188</v>
+      <c r="A189" t="s">
+        <v>239</v>
       </c>
       <c r="B189">
         <v>413</v>
@@ -3769,13 +4539,13 @@
       <c r="D189">
         <v>75</v>
       </c>
-      <c r="E189" t="s">
-        <v>51</v>
+      <c r="E189">
+        <v>500</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>189</v>
+      <c r="A190" t="s">
+        <v>240</v>
       </c>
       <c r="B190">
         <v>413</v>
@@ -3786,13 +4556,13 @@
       <c r="D190">
         <v>90</v>
       </c>
-      <c r="E190" t="s">
-        <v>51</v>
+      <c r="E190">
+        <v>500</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>190</v>
+      <c r="A191" t="s">
+        <v>241</v>
       </c>
       <c r="B191">
         <v>418</v>
@@ -3803,13 +4573,13 @@
       <c r="D191">
         <v>27</v>
       </c>
-      <c r="E191" t="s">
-        <v>51</v>
+      <c r="E191">
+        <v>500</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>191</v>
+      <c r="A192" t="s">
+        <v>242</v>
       </c>
       <c r="B192">
         <v>406</v>
@@ -3820,13 +4590,13 @@
       <c r="D192">
         <v>10</v>
       </c>
-      <c r="E192" t="s">
-        <v>51</v>
+      <c r="E192">
+        <v>500</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>192</v>
+      <c r="A193" t="s">
+        <v>243</v>
       </c>
       <c r="B193">
         <v>406</v>
@@ -3837,13 +4607,13 @@
       <c r="D193">
         <v>20</v>
       </c>
-      <c r="E193" t="s">
-        <v>51</v>
+      <c r="E193">
+        <v>500</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>193</v>
+      <c r="A194" t="s">
+        <v>244</v>
       </c>
       <c r="B194">
         <v>406</v>
@@ -3854,13 +4624,13 @@
       <c r="D194">
         <v>55</v>
       </c>
-      <c r="E194" t="s">
-        <v>51</v>
+      <c r="E194">
+        <v>500</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>194</v>
+      <c r="A195" t="s">
+        <v>245</v>
       </c>
       <c r="B195">
         <v>403</v>
@@ -3871,13 +4641,13 @@
       <c r="D195">
         <v>25</v>
       </c>
-      <c r="E195" t="s">
-        <v>51</v>
+      <c r="E195">
+        <v>500</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>195</v>
+      <c r="A196" t="s">
+        <v>246</v>
       </c>
       <c r="B196">
         <v>403</v>
@@ -3888,13 +4658,13 @@
       <c r="D196">
         <v>30</v>
       </c>
-      <c r="E196" t="s">
-        <v>51</v>
+      <c r="E196">
+        <v>500</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>196</v>
+      <c r="A197" t="s">
+        <v>247</v>
       </c>
       <c r="B197">
         <v>403</v>
@@ -3905,13 +4675,13 @@
       <c r="D197">
         <v>45</v>
       </c>
-      <c r="E197" t="s">
-        <v>51</v>
+      <c r="E197">
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>197</v>
+      <c r="A198" t="s">
+        <v>248</v>
       </c>
       <c r="B198">
         <v>405</v>
@@ -3922,13 +4692,13 @@
       <c r="D198">
         <v>20</v>
       </c>
-      <c r="E198" t="s">
-        <v>51</v>
+      <c r="E198">
+        <v>500</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>198</v>
+      <c r="A199" t="s">
+        <v>249</v>
       </c>
       <c r="B199">
         <v>403</v>
@@ -3939,13 +4709,13 @@
       <c r="D199">
         <v>35</v>
       </c>
-      <c r="E199" t="s">
-        <v>51</v>
+      <c r="E199">
+        <v>500</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>199</v>
+      <c r="A200" t="s">
+        <v>250</v>
       </c>
       <c r="B200">
         <v>400</v>
@@ -3956,13 +4726,13 @@
       <c r="D200">
         <v>20</v>
       </c>
-      <c r="E200" t="s">
-        <v>51</v>
+      <c r="E200">
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>200</v>
+      <c r="A201" t="s">
+        <v>251</v>
       </c>
       <c r="B201">
         <v>402</v>
@@ -3973,13 +4743,13 @@
       <c r="D201">
         <v>10</v>
       </c>
-      <c r="E201" t="s">
-        <v>51</v>
+      <c r="E201">
+        <v>500</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>201</v>
+      <c r="A202" t="s">
+        <v>252</v>
       </c>
       <c r="B202">
         <v>427</v>
@@ -3990,13 +4760,13 @@
       <c r="D202">
         <v>30</v>
       </c>
-      <c r="E202" t="s">
-        <v>51</v>
+      <c r="E202">
+        <v>500</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>202</v>
+      <c r="A203" t="s">
+        <v>253</v>
       </c>
       <c r="B203">
         <v>427</v>
@@ -4007,13 +4777,13 @@
       <c r="D203">
         <v>30</v>
       </c>
-      <c r="E203" t="s">
-        <v>51</v>
+      <c r="E203">
+        <v>500</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>203</v>
+      <c r="A204" t="s">
+        <v>254</v>
       </c>
       <c r="B204">
         <v>424</v>
@@ -4024,13 +4794,13 @@
       <c r="D204">
         <v>35</v>
       </c>
-      <c r="E204" t="s">
-        <v>51</v>
+      <c r="E204">
+        <v>500</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>204</v>
+      <c r="A205" t="s">
+        <v>255</v>
       </c>
       <c r="B205">
         <v>424</v>
@@ -4041,13 +4811,13 @@
       <c r="D205">
         <v>35</v>
       </c>
-      <c r="E205" t="s">
-        <v>51</v>
+      <c r="E205">
+        <v>500</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>205</v>
+      <c r="A206" t="s">
+        <v>256</v>
       </c>
       <c r="B206">
         <v>100</v>
@@ -4058,13 +4828,13 @@
       <c r="D206">
         <v>45</v>
       </c>
-      <c r="E206" t="s">
-        <v>51</v>
+      <c r="E206">
+        <v>500</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>206</v>
+      <c r="A207" t="s">
+        <v>257</v>
       </c>
       <c r="B207">
         <v>101</v>
@@ -4075,13 +4845,13 @@
       <c r="D207">
         <v>35</v>
       </c>
-      <c r="E207" t="s">
-        <v>51</v>
+      <c r="E207">
+        <v>500</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>207</v>
+      <c r="A208" t="s">
+        <v>258</v>
       </c>
       <c r="B208">
         <v>102</v>
@@ -4092,13 +4862,13 @@
       <c r="D208">
         <v>45</v>
       </c>
-      <c r="E208" t="s">
-        <v>51</v>
+      <c r="E208">
+        <v>500</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>208</v>
+      <c r="A209" t="s">
+        <v>259</v>
       </c>
       <c r="B209">
         <v>104</v>
@@ -4109,13 +4879,13 @@
       <c r="D209">
         <v>45</v>
       </c>
-      <c r="E209" t="s">
-        <v>51</v>
+      <c r="E209">
+        <v>500</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>209</v>
+      <c r="A210" t="s">
+        <v>260</v>
       </c>
       <c r="B210">
         <v>101</v>
@@ -4126,13 +4896,13 @@
       <c r="D210">
         <v>30</v>
       </c>
-      <c r="E210" t="s">
-        <v>51</v>
+      <c r="E210">
+        <v>500</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>210</v>
+      <c r="A211" t="s">
+        <v>261</v>
       </c>
       <c r="B211">
         <v>102</v>
@@ -4143,13 +4913,13 @@
       <c r="D211">
         <v>30</v>
       </c>
-      <c r="E211" t="s">
-        <v>51</v>
+      <c r="E211">
+        <v>500</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>211</v>
+      <c r="A212" t="s">
+        <v>262</v>
       </c>
       <c r="B212">
         <v>105</v>
@@ -4160,13 +4930,13 @@
       <c r="D212">
         <v>30</v>
       </c>
-      <c r="E212" t="s">
-        <v>51</v>
+      <c r="E212">
+        <v>500</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>212</v>
+      <c r="A213" t="s">
+        <v>263</v>
       </c>
       <c r="B213">
         <v>105</v>
@@ -4177,13 +4947,13 @@
       <c r="D213">
         <v>20</v>
       </c>
-      <c r="E213" t="s">
-        <v>51</v>
+      <c r="E213">
+        <v>500</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>213</v>
+      <c r="A214" t="s">
+        <v>264</v>
       </c>
       <c r="B214">
         <v>100</v>
@@ -4194,13 +4964,13 @@
       <c r="D214">
         <v>60</v>
       </c>
-      <c r="E214" t="s">
-        <v>51</v>
+      <c r="E214">
+        <v>500</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>214</v>
+      <c r="A215" t="s">
+        <v>265</v>
       </c>
       <c r="B215">
         <v>131</v>
@@ -4211,13 +4981,13 @@
       <c r="D215">
         <v>60</v>
       </c>
-      <c r="E215" t="s">
-        <v>51</v>
+      <c r="E215">
+        <v>500</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>215</v>
+      <c r="A216" t="s">
+        <v>266</v>
       </c>
       <c r="B216">
         <v>130</v>
@@ -4228,13 +4998,13 @@
       <c r="D216">
         <v>60</v>
       </c>
-      <c r="E216" t="s">
-        <v>51</v>
+      <c r="E216">
+        <v>500</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>216</v>
+      <c r="A217" t="s">
+        <v>267</v>
       </c>
       <c r="B217">
         <v>131</v>
@@ -4245,13 +5015,13 @@
       <c r="D217">
         <v>45</v>
       </c>
-      <c r="E217" t="s">
-        <v>51</v>
+      <c r="E217">
+        <v>500</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>217</v>
+      <c r="A218" t="s">
+        <v>268</v>
       </c>
       <c r="B218">
         <v>130</v>
@@ -4262,13 +5032,13 @@
       <c r="D218">
         <v>45</v>
       </c>
-      <c r="E218" t="s">
-        <v>51</v>
+      <c r="E218">
+        <v>500</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>218</v>
+      <c r="A219" t="s">
+        <v>269</v>
       </c>
       <c r="B219">
         <v>130</v>
@@ -4279,13 +5049,13 @@
       <c r="D219">
         <v>20</v>
       </c>
-      <c r="E219" t="s">
-        <v>51</v>
+      <c r="E219">
+        <v>500</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>219</v>
+      <c r="A220" t="s">
+        <v>270</v>
       </c>
       <c r="B220">
         <v>132</v>
@@ -4296,13 +5066,13 @@
       <c r="D220">
         <v>20</v>
       </c>
-      <c r="E220" t="s">
-        <v>51</v>
+      <c r="E220">
+        <v>500</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>220</v>
+      <c r="A221" t="s">
+        <v>271</v>
       </c>
       <c r="B221">
         <v>132</v>
@@ -4313,13 +5083,13 @@
       <c r="D221">
         <v>90</v>
       </c>
-      <c r="E221" t="s">
-        <v>51</v>
+      <c r="E221">
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>221</v>
+      <c r="A222" t="s">
+        <v>272</v>
       </c>
       <c r="B222">
         <v>127</v>
@@ -4330,13 +5100,13 @@
       <c r="D222">
         <v>60</v>
       </c>
-      <c r="E222" t="s">
-        <v>51</v>
+      <c r="E222">
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>222</v>
+      <c r="A223" t="s">
+        <v>273</v>
       </c>
       <c r="B223">
         <v>133</v>
@@ -4347,13 +5117,13 @@
       <c r="D223">
         <v>60</v>
       </c>
-      <c r="E223" t="s">
-        <v>51</v>
+      <c r="E223">
+        <v>500</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>223</v>
+      <c r="A224" t="s">
+        <v>274</v>
       </c>
       <c r="B224">
         <v>135</v>
@@ -4364,13 +5134,13 @@
       <c r="D224">
         <v>70</v>
       </c>
-      <c r="E224" t="s">
-        <v>51</v>
+      <c r="E224">
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>224</v>
+      <c r="A225" t="s">
+        <v>275</v>
       </c>
       <c r="B225">
         <v>133</v>
@@ -4381,13 +5151,13 @@
       <c r="D225">
         <v>80</v>
       </c>
-      <c r="E225" t="s">
-        <v>51</v>
+      <c r="E225">
+        <v>500</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>225</v>
+      <c r="A226" t="s">
+        <v>276</v>
       </c>
       <c r="B226">
         <v>135</v>
@@ -4398,13 +5168,13 @@
       <c r="D226">
         <v>110</v>
       </c>
-      <c r="E226" t="s">
-        <v>51</v>
+      <c r="E226">
+        <v>500</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>226</v>
+      <c r="A227" t="s">
+        <v>277</v>
       </c>
       <c r="B227">
         <v>170</v>
@@ -4415,13 +5185,13 @@
       <c r="D227">
         <v>80</v>
       </c>
-      <c r="E227" t="s">
-        <v>51</v>
+      <c r="E227">
+        <v>500</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>227</v>
+      <c r="A228" t="s">
+        <v>278</v>
       </c>
       <c r="B228">
         <v>160</v>
@@ -4432,13 +5202,13 @@
       <c r="D228">
         <v>105</v>
       </c>
-      <c r="E228" t="s">
-        <v>51</v>
+      <c r="E228">
+        <v>500</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>228</v>
+      <c r="A229" t="s">
+        <v>279</v>
       </c>
       <c r="B229">
         <v>183</v>
@@ -4449,13 +5219,13 @@
       <c r="D229">
         <v>80</v>
       </c>
-      <c r="E229" t="s">
-        <v>51</v>
+      <c r="E229">
+        <v>500</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>229</v>
+      <c r="A230" t="s">
+        <v>280</v>
       </c>
       <c r="B230" t="s">
         <v>43</v>
@@ -4466,13 +5236,13 @@
       <c r="D230">
         <v>70</v>
       </c>
-      <c r="E230" t="s">
-        <v>51</v>
+      <c r="E230">
+        <v>500</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>230</v>
+      <c r="A231" t="s">
+        <v>281</v>
       </c>
       <c r="B231" t="s">
         <v>43</v>
@@ -4483,13 +5253,13 @@
       <c r="D231">
         <v>70</v>
       </c>
-      <c r="E231" t="s">
-        <v>51</v>
+      <c r="E231">
+        <v>500</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>231</v>
+      <c r="A232" t="s">
+        <v>282</v>
       </c>
       <c r="B232">
         <v>160</v>
@@ -4500,13 +5270,13 @@
       <c r="D232">
         <v>40</v>
       </c>
-      <c r="E232" t="s">
-        <v>51</v>
+      <c r="E232">
+        <v>500</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>232</v>
+      <c r="A233" t="s">
+        <v>283</v>
       </c>
       <c r="B233">
         <v>160</v>
@@ -4517,13 +5287,13 @@
       <c r="D233">
         <v>40</v>
       </c>
-      <c r="E233" t="s">
-        <v>51</v>
+      <c r="E233">
+        <v>500</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>233</v>
+      <c r="A234" t="s">
+        <v>284</v>
       </c>
       <c r="B234">
         <v>170</v>
@@ -4534,13 +5304,13 @@
       <c r="D234">
         <v>45</v>
       </c>
-      <c r="E234" t="s">
-        <v>51</v>
+      <c r="E234">
+        <v>500</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>234</v>
+      <c r="A235" t="s">
+        <v>285</v>
       </c>
       <c r="B235">
         <v>170</v>
@@ -4551,13 +5321,13 @@
       <c r="D235">
         <v>45</v>
       </c>
-      <c r="E235" t="s">
-        <v>51</v>
+      <c r="E235">
+        <v>500</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>235</v>
+      <c r="A236" t="s">
+        <v>286</v>
       </c>
       <c r="B236">
         <v>183</v>
@@ -4568,13 +5338,13 @@
       <c r="D236">
         <v>35</v>
       </c>
-      <c r="E236" t="s">
-        <v>51</v>
+      <c r="E236">
+        <v>500</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>236</v>
+      <c r="A237" t="s">
+        <v>287</v>
       </c>
       <c r="B237">
         <v>183</v>
@@ -4585,13 +5355,13 @@
       <c r="D237">
         <v>20</v>
       </c>
-      <c r="E237" t="s">
-        <v>51</v>
+      <c r="E237">
+        <v>500</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>237</v>
+      <c r="A238" t="s">
+        <v>288</v>
       </c>
       <c r="B238">
         <v>160</v>
@@ -4602,13 +5372,13 @@
       <c r="D238">
         <v>45</v>
       </c>
-      <c r="E238" t="s">
-        <v>51</v>
+      <c r="E238">
+        <v>500</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>238</v>
+      <c r="A239" t="s">
+        <v>289</v>
       </c>
       <c r="B239">
         <v>164</v>
@@ -4619,13 +5389,13 @@
       <c r="D239">
         <v>10</v>
       </c>
-      <c r="E239" t="s">
-        <v>51</v>
+      <c r="E239">
+        <v>500</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>239</v>
+      <c r="A240" t="s">
+        <v>290</v>
       </c>
       <c r="B240">
         <v>164</v>
@@ -4636,13 +5406,13 @@
       <c r="D240">
         <v>30</v>
       </c>
-      <c r="E240" t="s">
-        <v>51</v>
+      <c r="E240">
+        <v>500</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>240</v>
+      <c r="A241" t="s">
+        <v>291</v>
       </c>
       <c r="B241">
         <v>169</v>
@@ -4653,13 +5423,13 @@
       <c r="D241">
         <v>10</v>
       </c>
-      <c r="E241" t="s">
-        <v>51</v>
+      <c r="E241">
+        <v>500</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>241</v>
+      <c r="A242" t="s">
+        <v>292</v>
       </c>
       <c r="B242">
         <v>164</v>
@@ -4670,13 +5440,13 @@
       <c r="D242">
         <v>20</v>
       </c>
-      <c r="E242" t="s">
-        <v>51</v>
+      <c r="E242">
+        <v>500</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>242</v>
+      <c r="A243" t="s">
+        <v>293</v>
       </c>
       <c r="B243">
         <v>183</v>
@@ -4687,13 +5457,13 @@
       <c r="D243">
         <v>30</v>
       </c>
-      <c r="E243" t="s">
-        <v>51</v>
+      <c r="E243">
+        <v>500</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>243</v>
+      <c r="A244" t="s">
+        <v>294</v>
       </c>
       <c r="B244">
         <v>170</v>
@@ -4704,13 +5474,13 @@
       <c r="D244">
         <v>50</v>
       </c>
-      <c r="E244" t="s">
-        <v>51</v>
+      <c r="E244">
+        <v>500</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>244</v>
+      <c r="A245" t="s">
+        <v>295</v>
       </c>
       <c r="B245">
         <v>183</v>
@@ -4721,13 +5491,13 @@
       <c r="D245">
         <v>30</v>
       </c>
-      <c r="E245" t="s">
-        <v>51</v>
+      <c r="E245">
+        <v>500</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>245</v>
+      <c r="A246" t="s">
+        <v>296</v>
       </c>
       <c r="B246">
         <v>186</v>
@@ -4738,13 +5508,13 @@
       <c r="D246">
         <v>15</v>
       </c>
-      <c r="E246" t="s">
-        <v>51</v>
+      <c r="E246">
+        <v>500</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>246</v>
+      <c r="A247" t="s">
+        <v>297</v>
       </c>
       <c r="B247">
         <v>183</v>
@@ -4755,13 +5525,13 @@
       <c r="D247">
         <v>35</v>
       </c>
-      <c r="E247" t="s">
-        <v>51</v>
+      <c r="E247">
+        <v>500</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>247</v>
+      <c r="A248" t="s">
+        <v>298</v>
       </c>
       <c r="B248">
         <v>181</v>
@@ -4772,13 +5542,13 @@
       <c r="D248">
         <v>40</v>
       </c>
-      <c r="E248" t="s">
-        <v>51</v>
+      <c r="E248">
+        <v>500</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>248</v>
+      <c r="A249" t="s">
+        <v>299</v>
       </c>
       <c r="B249">
         <v>180</v>
@@ -4789,13 +5559,13 @@
       <c r="D249">
         <v>40</v>
       </c>
-      <c r="E249" t="s">
-        <v>51</v>
+      <c r="E249">
+        <v>500</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>249</v>
+      <c r="A250" t="s">
+        <v>300</v>
       </c>
       <c r="B250">
         <v>180</v>
@@ -4806,13 +5576,13 @@
       <c r="D250">
         <v>50</v>
       </c>
-      <c r="E250" t="s">
-        <v>51</v>
+      <c r="E250">
+        <v>500</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>250</v>
+      <c r="A251" t="s">
+        <v>301</v>
       </c>
       <c r="B251">
         <v>170</v>
@@ -4823,13 +5593,13 @@
       <c r="D251">
         <v>35</v>
       </c>
-      <c r="E251" t="s">
-        <v>51</v>
+      <c r="E251">
+        <v>500</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>251</v>
+      <c r="A252" t="s">
+        <v>302</v>
       </c>
       <c r="B252">
         <v>173</v>
@@ -4840,13 +5610,13 @@
       <c r="D252">
         <v>45</v>
       </c>
-      <c r="E252" t="s">
-        <v>51</v>
+      <c r="E252">
+        <v>500</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>252</v>
+      <c r="A253" t="s">
+        <v>303</v>
       </c>
       <c r="B253">
         <v>174</v>
@@ -4857,13 +5627,13 @@
       <c r="D253">
         <v>45</v>
       </c>
-      <c r="E253" t="s">
-        <v>51</v>
+      <c r="E253">
+        <v>500</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>253</v>
+      <c r="A254" t="s">
+        <v>304</v>
       </c>
       <c r="B254">
         <v>173</v>
@@ -4874,13 +5644,13 @@
       <c r="D254">
         <v>20</v>
       </c>
-      <c r="E254" t="s">
-        <v>51</v>
+      <c r="E254">
+        <v>500</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>254</v>
+      <c r="A255" t="s">
+        <v>305</v>
       </c>
       <c r="B255" t="s">
         <v>40</v>
@@ -4891,13 +5661,13 @@
       <c r="D255">
         <v>180</v>
       </c>
-      <c r="E255" t="s">
-        <v>51</v>
+      <c r="E255">
+        <v>500</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>255</v>
+      <c r="A256" t="s">
+        <v>306</v>
       </c>
       <c r="B256" t="s">
         <v>41</v>
@@ -4908,13 +5678,13 @@
       <c r="D256">
         <v>220</v>
       </c>
-      <c r="E256" t="s">
-        <v>51</v>
+      <c r="E256">
+        <v>500</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>256</v>
+      <c r="A257" t="s">
+        <v>307</v>
       </c>
       <c r="B257" t="s">
         <v>43</v>
@@ -4925,8 +5695,8 @@
       <c r="D257">
         <v>180</v>
       </c>
-      <c r="E257" t="s">
-        <v>51</v>
+      <c r="E257">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/2019/D/code/data.xlsx
+++ b/2019/D/code/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFAD5B9-05F1-4920-80BC-548973DDB9E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749A6A1F-D207-4735-A9F2-D64289E62EC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="G254" sqref="G254"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
